--- a/chapter3/input/chapter3_demo_data.xlsx
+++ b/chapter3/input/chapter3_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter2\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter3\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87855621-3F0F-48BD-BA58-CF9C08FB6631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E397AE-C02D-46D4-8923-8F7D66AA4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="2510" windowWidth="34540" windowHeight="17720" activeTab="5" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
+    <workbookView xWindow="890" yWindow="2680" windowWidth="34540" windowHeight="17720" activeTab="6" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
   </bookViews>
   <sheets>
     <sheet name="初期データ" sheetId="2" r:id="rId1"/>
@@ -305,19 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>耐擦過性(n10</t>
-    <rPh sb="0" eb="1">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サッカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サンプルID</t>
   </si>
   <si>
@@ -523,9 +510,6 @@
     <t>擦過圧力</t>
   </si>
   <si>
-    <t>耐擦過性(n10</t>
-  </si>
-  <si>
     <t>画像濃度</t>
   </si>
   <si>
@@ -687,6 +671,23 @@
     <rPh sb="2" eb="6">
       <t>シゼンカンソウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐擦過性</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サッカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐擦過性</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1156,6 +1157,24 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,24 +1191,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2270,7 +2271,7 @@
     <tableColumn id="22" xr3:uid="{61383965-32FF-4B6B-A130-112343B8352F}" name="乾燥時間" dataDxfId="8"/>
     <tableColumn id="23" xr3:uid="{0DEA56C1-3AF8-488E-821F-D7ECE7DC486D}" name="擦過回数" dataDxfId="7"/>
     <tableColumn id="24" xr3:uid="{1116544B-F4E0-45DF-ABA0-F7FE6533AD70}" name="擦過圧力" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{D9ACC828-BCC8-4B08-A153-E07A256FF1B0}" name="耐擦過性(n10" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{D9ACC828-BCC8-4B08-A153-E07A256FF1B0}" name="耐擦過性" dataDxfId="5"/>
     <tableColumn id="26" xr3:uid="{6D431567-CF0D-4A1A-BE2F-46F42416D8E0}" name="画像濃度" dataDxfId="4"/>
     <tableColumn id="27" xr3:uid="{60BC8876-82FC-443A-B9E3-6F1E0B2F7B23}" name="粘度" dataDxfId="3"/>
     <tableColumn id="28" xr3:uid="{F7778685-BDA9-4350-82B1-916E77C1E470}" name="表面張力" dataDxfId="2"/>
@@ -2581,10 +2582,10 @@
   <dimension ref="B5:AJ36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2610,7 +2611,7 @@
   <sheetData>
     <row r="5" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
@@ -2700,119 +2701,119 @@
         <v>47</v>
       </c>
       <c r="AG5" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AI5" s="12" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="77">
         <v>45310</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="83">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="77">
         <v>45321</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84">
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78">
         <v>45329</v>
       </c>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="83">
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="77">
         <v>45337</v>
       </c>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="83">
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="77">
         <v>45350</v>
       </c>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="83">
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="77">
         <v>45366</v>
       </c>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="83">
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="77">
         <v>45392</v>
       </c>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="85"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="79"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="86" t="s">
+      <c r="D7" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="86" t="s">
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="86" t="s">
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="88"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="82"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
@@ -2860,10 +2861,10 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="50">
         <v>46.9</v>
@@ -2968,7 +2969,7 @@
     <row r="10" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="50">
         <v>40</v>
@@ -3073,7 +3074,7 @@
     <row r="11" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="50">
         <v>0</v>
@@ -3178,7 +3179,7 @@
     <row r="12" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="50">
         <v>2</v>
@@ -3283,7 +3284,7 @@
     <row r="13" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="50">
         <v>0</v>
@@ -3388,7 +3389,7 @@
     <row r="14" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="21"/>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="50">
         <v>2</v>
@@ -3493,7 +3494,7 @@
     <row r="15" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="21"/>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="50">
         <v>0</v>
@@ -3598,7 +3599,7 @@
     <row r="16" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="50">
         <v>0</v>
@@ -3703,7 +3704,7 @@
     <row r="17" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D17" s="50">
         <v>5</v>
@@ -3808,7 +3809,7 @@
     <row r="18" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="50">
         <v>0</v>
@@ -3913,7 +3914,7 @@
     <row r="19" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="50">
         <v>4</v>
@@ -4018,7 +4019,7 @@
     <row r="20" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="50">
         <v>0</v>
@@ -4123,7 +4124,7 @@
     <row r="21" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="22"/>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="50">
         <v>0.1</v>
@@ -4260,7 +4261,7 @@
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -4475,51 +4476,51 @@
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="79"/>
+      <c r="D25" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="85"/>
       <c r="AD25" s="8">
         <v>9.8199999999999985</v>
       </c>
       <c r="AE25" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF25" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="AF25" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="AG25" s="8">
         <v>10.069999999999999</v>
       </c>
       <c r="AH25" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI25" s="45" t="s">
         <v>84</v>
-      </c>
-      <c r="AI25" s="45" t="s">
-        <v>85</v>
       </c>
       <c r="AJ25" s="1">
         <v>12.6</v>
@@ -4530,10 +4531,10 @@
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="47">
         <v>2</v>
@@ -4640,65 +4641,65 @@
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="81"/>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="82"/>
+      <c r="D28" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="87"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="88"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="21"/>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="82"/>
+      <c r="D29" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
       <c r="R29" s="47">
         <v>100</v>
       </c>
@@ -4762,22 +4763,22 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="82"/>
+      <c r="D30" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="88"/>
       <c r="R30" s="47">
         <v>0.01</v>
       </c>
@@ -4872,7 +4873,7 @@
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -4881,97 +4882,97 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ32" s="1">
         <v>10</v>
@@ -4986,97 +4987,97 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ33" s="1">
         <v>5</v>
@@ -5117,10 +5118,10 @@
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D35" s="48">
         <v>2.4</v>
@@ -5329,6 +5330,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D25:AC25"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="R28:AJ28"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AD6:AJ6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="R6:U6"/>
     <mergeCell ref="D7:H7"/>
@@ -5336,17 +5348,6 @@
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AD6:AJ6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="D25:AC25"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="R28:AJ28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5361,7 +5362,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="O6:Q6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5387,7 +5388,7 @@
   <sheetData>
     <row r="5" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
@@ -5477,16 +5478,16 @@
         <v>47</v>
       </c>
       <c r="AG5" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AI5" s="12" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.55000000000000004">
@@ -5743,10 +5744,10 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="50">
         <v>46.9</v>
@@ -5851,7 +5852,7 @@
     <row r="10" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="50">
         <v>40</v>
@@ -5956,7 +5957,7 @@
     <row r="11" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="50">
         <v>0</v>
@@ -6061,7 +6062,7 @@
     <row r="12" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="50">
         <v>2</v>
@@ -6166,7 +6167,7 @@
     <row r="13" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="50">
         <v>0</v>
@@ -6271,7 +6272,7 @@
     <row r="14" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="21"/>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="50">
         <v>2</v>
@@ -6376,7 +6377,7 @@
     <row r="15" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="21"/>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="50">
         <v>0</v>
@@ -6481,7 +6482,7 @@
     <row r="16" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="50">
         <v>0</v>
@@ -6586,7 +6587,7 @@
     <row r="17" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D17" s="50">
         <v>5</v>
@@ -6691,7 +6692,7 @@
     <row r="18" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="50">
         <v>0</v>
@@ -6796,7 +6797,7 @@
     <row r="19" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="50">
         <v>4</v>
@@ -6901,7 +6902,7 @@
     <row r="20" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="50">
         <v>0</v>
@@ -7006,7 +7007,7 @@
     <row r="21" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="22"/>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="50">
         <v>0.1</v>
@@ -7143,7 +7144,7 @@
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -7359,100 +7360,100 @@
         <v>10</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD25" s="8">
         <v>9.8199999999999985</v>
       </c>
       <c r="AE25" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF25" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="AF25" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="AG25" s="8">
         <v>10.069999999999999</v>
       </c>
       <c r="AH25" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI25" s="45" t="s">
         <v>84</v>
-      </c>
-      <c r="AI25" s="45" t="s">
-        <v>85</v>
       </c>
       <c r="AJ25" s="1">
         <v>12.6</v>
@@ -7463,10 +7464,10 @@
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="47">
         <v>2</v>
@@ -7574,103 +7575,103 @@
         <v>2</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.55000000000000004">
@@ -7679,46 +7680,46 @@
         <v>3</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R29" s="47">
         <v>100</v>
@@ -7784,46 +7785,46 @@
         <v>4</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R30" s="47">
         <v>0.01</v>
@@ -7919,7 +7920,7 @@
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -7928,97 +7929,97 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ32" s="1">
         <v>10</v>
@@ -8033,97 +8034,97 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ33" s="1">
         <v>5</v>
@@ -8164,10 +8165,10 @@
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D35" s="48">
         <v>2.4</v>
@@ -8384,9 +8385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B744582-CF08-477A-A386-996EB0CCB24C}">
   <dimension ref="B5:AC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C28"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8410,7 +8409,7 @@
   <sheetData>
     <row r="5" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -8425,28 +8424,28 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="14"/>
       <c r="V5" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA5" s="9"/>
       <c r="AB5" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC5" s="19"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>0</v>
@@ -8458,43 +8457,43 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="S6" s="24" t="s">
         <v>8</v>
@@ -8506,7 +8505,7 @@
         <v>10</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W6" s="24" t="s">
         <v>2</v>
@@ -8524,7 +8523,7 @@
         <v>6</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="AC6" s="24" t="s">
         <v>7</v>
@@ -8587,19 +8586,19 @@
         <v>35</v>
       </c>
       <c r="U7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" s="24">
+        <v>2</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="V7" s="24">
-        <v>2</v>
-      </c>
-      <c r="W7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="Z7" s="24">
         <v>10</v>
@@ -8671,25 +8670,25 @@
         <v>38</v>
       </c>
       <c r="U8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="24">
+        <v>2</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V8" s="24">
-        <v>2</v>
-      </c>
-      <c r="W8" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X8" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB8" s="34">
         <v>2.4</v>
@@ -8755,25 +8754,25 @@
         <v>40</v>
       </c>
       <c r="U9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" s="24">
+        <v>2</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V9" s="24">
-        <v>2</v>
-      </c>
-      <c r="W9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X9" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y9" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z9" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA9" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB9" s="34">
         <v>2.4</v>
@@ -8839,25 +8838,25 @@
         <v>41</v>
       </c>
       <c r="U10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="24">
+        <v>2</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V10" s="24">
-        <v>2</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y10" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z10" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA10" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="34">
         <v>2.4</v>
@@ -8923,25 +8922,25 @@
         <v>44</v>
       </c>
       <c r="U11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="24">
+        <v>2</v>
+      </c>
+      <c r="W11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="24">
-        <v>2</v>
-      </c>
-      <c r="W11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X11" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y11" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z11" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA11" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB11" s="34">
         <v>2.4</v>
@@ -9009,25 +9008,25 @@
         <v>38</v>
       </c>
       <c r="U12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V12" s="24">
+        <v>2</v>
+      </c>
+      <c r="W12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="24">
-        <v>2</v>
-      </c>
-      <c r="W12" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X12" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y12" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB12" s="34">
         <v>2.7</v>
@@ -9093,25 +9092,25 @@
         <v>37</v>
       </c>
       <c r="U13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" s="24">
+        <v>2</v>
+      </c>
+      <c r="W13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V13" s="24">
-        <v>2</v>
-      </c>
-      <c r="W13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X13" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y13" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z13" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA13" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="34">
         <v>2.7</v>
@@ -9177,25 +9176,25 @@
         <v>39</v>
       </c>
       <c r="U14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="24">
+        <v>2</v>
+      </c>
+      <c r="W14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V14" s="24">
-        <v>2</v>
-      </c>
-      <c r="W14" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X14" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y14" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z14" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA14" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="34">
         <v>2.7</v>
@@ -9261,25 +9260,25 @@
         <v>36</v>
       </c>
       <c r="U15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" s="24">
+        <v>2</v>
+      </c>
+      <c r="W15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="24">
-        <v>2</v>
-      </c>
-      <c r="W15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y15" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z15" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA15" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="34">
         <v>3.1</v>
@@ -9345,25 +9344,25 @@
         <v>34</v>
       </c>
       <c r="U16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="24">
+        <v>2</v>
+      </c>
+      <c r="W16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="24">
-        <v>2</v>
-      </c>
-      <c r="W16" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X16" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y16" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z16" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA16" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB16" s="34">
         <v>3.6</v>
@@ -9429,25 +9428,25 @@
         <v>32</v>
       </c>
       <c r="U17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="24">
+        <v>2</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="24">
-        <v>2</v>
-      </c>
-      <c r="W17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X17" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y17" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z17" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA17" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB17" s="34">
         <v>4</v>
@@ -9513,25 +9512,25 @@
         <v>38</v>
       </c>
       <c r="U18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" s="24">
+        <v>2</v>
+      </c>
+      <c r="W18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="24">
-        <v>2</v>
-      </c>
-      <c r="W18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X18" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y18" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z18" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA18" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB18" s="34">
         <v>2</v>
@@ -9597,25 +9596,25 @@
         <v>36</v>
       </c>
       <c r="U19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V19" s="24">
+        <v>2</v>
+      </c>
+      <c r="W19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="24">
-        <v>2</v>
-      </c>
-      <c r="W19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X19" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y19" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z19" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA19" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB19" s="35">
         <v>2.1</v>
@@ -9681,25 +9680,25 @@
         <v>32</v>
       </c>
       <c r="U20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" s="24">
+        <v>2</v>
+      </c>
+      <c r="W20" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="24">
-        <v>2</v>
-      </c>
-      <c r="W20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X20" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y20" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="Z20" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA20" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB20" s="35">
         <v>2.2999999999999998</v>
@@ -9765,13 +9764,13 @@
         <v>34</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V21" s="24">
         <v>2</v>
       </c>
       <c r="W21" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X21" s="32">
         <v>100</v>
@@ -9780,10 +9779,10 @@
         <v>0.01</v>
       </c>
       <c r="Z21" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA21" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB21" s="35">
         <v>2.6</v>
@@ -9849,13 +9848,13 @@
         <v>34</v>
       </c>
       <c r="U22" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V22" s="24">
         <v>2</v>
       </c>
       <c r="W22" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X22" s="32">
         <v>100</v>
@@ -9864,10 +9863,10 @@
         <v>0.03</v>
       </c>
       <c r="Z22" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA22" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB22" s="35">
         <v>5</v>
@@ -9933,13 +9932,13 @@
         <v>34</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V23" s="24">
         <v>2</v>
       </c>
       <c r="W23" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X23" s="32">
         <v>80</v>
@@ -9948,10 +9947,10 @@
         <v>0.01</v>
       </c>
       <c r="Z23" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA23" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB23" s="35">
         <v>2.2999999999999998</v>
@@ -10017,13 +10016,13 @@
         <v>34</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V24" s="24">
         <v>2</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X24" s="32">
         <v>120</v>
@@ -10032,10 +10031,10 @@
         <v>0.01</v>
       </c>
       <c r="Z24" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA24" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB24" s="35">
         <v>2.9</v>
@@ -10103,13 +10102,13 @@
         <v>34</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V25" s="24">
         <v>2</v>
       </c>
       <c r="W25" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X25" s="32">
         <v>100</v>
@@ -10118,10 +10117,10 @@
         <v>0.03</v>
       </c>
       <c r="Z25" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA25" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB25" s="35">
         <v>5</v>
@@ -10187,13 +10186,13 @@
         <v>36</v>
       </c>
       <c r="U26" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V26" s="24">
         <v>2</v>
       </c>
       <c r="W26" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X26" s="32">
         <v>100</v>
@@ -10202,10 +10201,10 @@
         <v>0.03</v>
       </c>
       <c r="Z26" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA26" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB26" s="35">
         <v>5</v>
@@ -10271,13 +10270,13 @@
         <v>31</v>
       </c>
       <c r="U27" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V27" s="24">
         <v>2</v>
       </c>
       <c r="W27" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X27" s="31">
         <v>100</v>
@@ -10286,10 +10285,10 @@
         <v>0.05</v>
       </c>
       <c r="Z27" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB27" s="35">
         <v>5</v>
@@ -10355,13 +10354,13 @@
         <v>34</v>
       </c>
       <c r="U28" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V28" s="24">
         <v>2</v>
       </c>
       <c r="W28" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X28" s="31">
         <v>100</v>
@@ -10370,10 +10369,10 @@
         <v>0.03</v>
       </c>
       <c r="Z28" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA28" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB28" s="35">
         <v>5</v>
@@ -10439,13 +10438,13 @@
         <v>36</v>
       </c>
       <c r="U29" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V29" s="24">
         <v>2</v>
       </c>
       <c r="W29" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X29" s="31">
         <v>100</v>
@@ -10454,10 +10453,10 @@
         <v>0.03</v>
       </c>
       <c r="Z29" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA29" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB29" s="35">
         <v>5</v>
@@ -10523,13 +10522,13 @@
         <v>33</v>
       </c>
       <c r="U30" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V30" s="24">
         <v>2</v>
       </c>
       <c r="W30" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X30" s="31">
         <v>100</v>
@@ -10538,10 +10537,10 @@
         <v>0.03</v>
       </c>
       <c r="Z30" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA30" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB30" s="35">
         <v>5</v>
@@ -10607,13 +10606,13 @@
         <v>31</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V31" s="24">
         <v>2</v>
       </c>
       <c r="W31" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X31" s="31">
         <v>100</v>
@@ -10622,10 +10621,10 @@
         <v>0.03</v>
       </c>
       <c r="Z31" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA31" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB31" s="35">
         <v>5</v>
@@ -10691,13 +10690,13 @@
         <v>41</v>
       </c>
       <c r="U32" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V32" s="24">
         <v>2</v>
       </c>
       <c r="W32" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X32" s="36">
         <v>100</v>
@@ -10706,10 +10705,10 @@
         <v>0.03</v>
       </c>
       <c r="Z32" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA32" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="35">
         <v>5</v>
@@ -10783,7 +10782,7 @@
         <v>2</v>
       </c>
       <c r="W33" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X33" s="36">
         <v>100</v>
@@ -10792,10 +10791,10 @@
         <v>0.03</v>
       </c>
       <c r="Z33" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA33" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB33" s="35">
         <v>5</v>
@@ -10861,13 +10860,13 @@
         <v>34</v>
       </c>
       <c r="U34" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V34" s="24">
         <v>2</v>
       </c>
       <c r="W34" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X34" s="31">
         <v>100</v>
@@ -10876,10 +10875,10 @@
         <v>0.03</v>
       </c>
       <c r="Z34" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA34" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB34" s="35">
         <v>5</v>
@@ -10945,13 +10944,13 @@
         <v>32</v>
       </c>
       <c r="U35" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V35" s="24">
         <v>2</v>
       </c>
       <c r="W35" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X35" s="36">
         <v>100</v>
@@ -10960,10 +10959,10 @@
         <v>0.03</v>
       </c>
       <c r="Z35" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA35" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB35" s="35">
         <v>5</v>
@@ -10974,7 +10973,7 @@
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="28">
         <v>45392</v>
@@ -11035,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="W36" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X36" s="36">
         <v>100</v>
@@ -11044,10 +11043,10 @@
         <v>0.03</v>
       </c>
       <c r="Z36" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA36" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB36" s="35">
         <v>5</v>
@@ -11058,7 +11057,7 @@
     </row>
     <row r="37" spans="2:29" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="28">
         <v>45392</v>
@@ -11113,13 +11112,13 @@
         <v>34</v>
       </c>
       <c r="U37" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V37" s="24">
         <v>2</v>
       </c>
       <c r="W37" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X37" s="30">
         <v>100</v>
@@ -11128,10 +11127,10 @@
         <v>0.03</v>
       </c>
       <c r="Z37" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA37" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB37" s="35">
         <v>5</v>
@@ -11142,7 +11141,7 @@
     </row>
     <row r="38" spans="2:29" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="28">
         <v>45392</v>
@@ -11197,13 +11196,13 @@
         <v>32</v>
       </c>
       <c r="U38" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V38" s="24">
         <v>2</v>
       </c>
       <c r="W38" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X38" s="30">
         <v>100</v>
@@ -11212,10 +11211,10 @@
         <v>0.03</v>
       </c>
       <c r="Z38" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA38" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB38" s="35">
         <v>5</v>
@@ -11226,7 +11225,7 @@
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="28">
         <v>45392</v>
@@ -11287,7 +11286,7 @@
         <v>2</v>
       </c>
       <c r="W39" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X39" s="30">
         <v>100</v>
@@ -11322,7 +11321,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18:C20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11348,7 +11347,7 @@
   <sheetData>
     <row r="5" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -11363,29 +11362,29 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD5" s="19"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>0</v>
@@ -11397,43 +11396,43 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="S6" s="24" t="s">
         <v>8</v>
@@ -11445,10 +11444,10 @@
         <v>10</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W6" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X6" s="24" t="s">
         <v>2</v>
@@ -11466,7 +11465,7 @@
         <v>6</v>
       </c>
       <c r="AC6" s="24" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="AD6" s="24" t="s">
         <v>7</v>
@@ -11529,20 +11528,20 @@
         <v>35</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V7" s="27"/>
       <c r="W7" s="24">
         <v>2</v>
       </c>
       <c r="X7" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y7" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA7" s="24">
         <v>10</v>
@@ -11614,26 +11613,26 @@
         <v>38</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V8" s="27"/>
       <c r="W8" s="24">
         <v>2</v>
       </c>
       <c r="X8" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC8" s="34">
         <v>2.4</v>
@@ -11699,26 +11698,26 @@
         <v>40</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V9" s="27"/>
       <c r="W9" s="24">
         <v>2</v>
       </c>
       <c r="X9" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA9" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB9" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC9" s="34">
         <v>2.4</v>
@@ -11784,26 +11783,26 @@
         <v>41</v>
       </c>
       <c r="U10" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V10" s="27"/>
       <c r="W10" s="24">
         <v>2</v>
       </c>
       <c r="X10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y10" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA10" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC10" s="34">
         <v>2.4</v>
@@ -11869,26 +11868,26 @@
         <v>44</v>
       </c>
       <c r="U11" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V11" s="27"/>
       <c r="W11" s="24">
         <v>2</v>
       </c>
       <c r="X11" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA11" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB11" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC11" s="34">
         <v>2.4</v>
@@ -11956,26 +11955,26 @@
         <v>38</v>
       </c>
       <c r="U12" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V12" s="27"/>
       <c r="W12" s="24">
         <v>2</v>
       </c>
       <c r="X12" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y12" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z12" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC12" s="34">
         <v>2.7</v>
@@ -12041,26 +12040,26 @@
         <v>37</v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V13" s="27"/>
       <c r="W13" s="24">
         <v>2</v>
       </c>
       <c r="X13" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y13" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA13" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC13" s="34">
         <v>2.7</v>
@@ -12126,26 +12125,26 @@
         <v>39</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V14" s="27"/>
       <c r="W14" s="24">
         <v>2</v>
       </c>
       <c r="X14" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y14" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z14" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA14" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC14" s="34">
         <v>2.7</v>
@@ -12211,26 +12210,26 @@
         <v>36</v>
       </c>
       <c r="U15" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V15" s="27"/>
       <c r="W15" s="24">
         <v>2</v>
       </c>
       <c r="X15" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y15" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z15" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA15" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC15" s="34">
         <v>3.1</v>
@@ -12296,26 +12295,26 @@
         <v>34</v>
       </c>
       <c r="U16" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V16" s="27"/>
       <c r="W16" s="24">
         <v>2</v>
       </c>
       <c r="X16" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z16" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA16" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB16" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC16" s="34">
         <v>3.6</v>
@@ -12381,26 +12380,26 @@
         <v>32</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V17" s="27"/>
       <c r="W17" s="24">
         <v>2</v>
       </c>
       <c r="X17" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y17" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z17" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA17" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB17" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC17" s="34">
         <v>4</v>
@@ -12466,26 +12465,26 @@
         <v>38</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V18" s="27"/>
       <c r="W18" s="24">
         <v>2</v>
       </c>
       <c r="X18" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y18" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z18" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA18" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB18" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC18" s="34">
         <v>2</v>
@@ -12551,26 +12550,26 @@
         <v>36</v>
       </c>
       <c r="U19" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V19" s="27"/>
       <c r="W19" s="24">
         <v>2</v>
       </c>
       <c r="X19" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y19" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z19" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA19" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB19" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC19" s="35">
         <v>2.1</v>
@@ -12636,26 +12635,26 @@
         <v>32</v>
       </c>
       <c r="U20" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V20" s="27"/>
       <c r="W20" s="24">
         <v>2</v>
       </c>
       <c r="X20" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y20" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z20" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA20" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB20" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC20" s="35">
         <v>2.2999999999999998</v>
@@ -12721,14 +12720,14 @@
         <v>34</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V21" s="27"/>
       <c r="W21" s="24">
         <v>2</v>
       </c>
       <c r="X21" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y21" s="32">
         <v>100</v>
@@ -12737,10 +12736,10 @@
         <v>0.01</v>
       </c>
       <c r="AA21" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB21" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC21" s="35">
         <v>2.6</v>
@@ -12806,14 +12805,14 @@
         <v>34</v>
       </c>
       <c r="U22" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V22" s="27"/>
       <c r="W22" s="24">
         <v>2</v>
       </c>
       <c r="X22" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y22" s="32">
         <v>100</v>
@@ -12822,10 +12821,10 @@
         <v>0.03</v>
       </c>
       <c r="AA22" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB22" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC22" s="35">
         <v>5</v>
@@ -12891,14 +12890,14 @@
         <v>34</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V23" s="27"/>
       <c r="W23" s="24">
         <v>2</v>
       </c>
       <c r="X23" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y23" s="32">
         <v>80</v>
@@ -12907,10 +12906,10 @@
         <v>0.01</v>
       </c>
       <c r="AA23" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB23" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC23" s="35">
         <v>2.2999999999999998</v>
@@ -12976,14 +12975,14 @@
         <v>34</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V24" s="27"/>
       <c r="W24" s="24">
         <v>2</v>
       </c>
       <c r="X24" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y24" s="32">
         <v>120</v>
@@ -12992,10 +12991,10 @@
         <v>0.01</v>
       </c>
       <c r="AA24" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB24" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC24" s="35">
         <v>2.9</v>
@@ -13063,14 +13062,14 @@
         <v>34</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V25" s="27"/>
       <c r="W25" s="24">
         <v>2</v>
       </c>
       <c r="X25" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y25" s="32">
         <v>100</v>
@@ -13079,10 +13078,10 @@
         <v>0.03</v>
       </c>
       <c r="AA25" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB25" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC25" s="35">
         <v>5</v>
@@ -13148,14 +13147,14 @@
         <v>36</v>
       </c>
       <c r="U26" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V26" s="27"/>
       <c r="W26" s="24">
         <v>2</v>
       </c>
       <c r="X26" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y26" s="32">
         <v>100</v>
@@ -13164,10 +13163,10 @@
         <v>0.03</v>
       </c>
       <c r="AA26" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB26" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC26" s="35">
         <v>5</v>
@@ -13233,14 +13232,14 @@
         <v>31</v>
       </c>
       <c r="U27" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V27" s="27"/>
       <c r="W27" s="24">
         <v>2</v>
       </c>
       <c r="X27" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y27" s="31">
         <v>100</v>
@@ -13249,10 +13248,10 @@
         <v>0.05</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB27" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC27" s="35">
         <v>5</v>
@@ -13318,14 +13317,14 @@
         <v>34</v>
       </c>
       <c r="U28" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V28" s="27"/>
       <c r="W28" s="24">
         <v>2</v>
       </c>
       <c r="X28" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y28" s="31">
         <v>100</v>
@@ -13334,10 +13333,10 @@
         <v>0.03</v>
       </c>
       <c r="AA28" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB28" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC28" s="35">
         <v>5</v>
@@ -13403,14 +13402,14 @@
         <v>36</v>
       </c>
       <c r="U29" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V29" s="27"/>
       <c r="W29" s="24">
         <v>2</v>
       </c>
       <c r="X29" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y29" s="31">
         <v>100</v>
@@ -13419,10 +13418,10 @@
         <v>0.03</v>
       </c>
       <c r="AA29" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB29" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC29" s="35">
         <v>5</v>
@@ -13488,14 +13487,14 @@
         <v>33</v>
       </c>
       <c r="U30" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V30" s="27"/>
       <c r="W30" s="24">
         <v>2</v>
       </c>
       <c r="X30" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y30" s="31">
         <v>100</v>
@@ -13504,10 +13503,10 @@
         <v>0.03</v>
       </c>
       <c r="AA30" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB30" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC30" s="35">
         <v>5</v>
@@ -13573,14 +13572,14 @@
         <v>31</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V31" s="27"/>
       <c r="W31" s="24">
         <v>2</v>
       </c>
       <c r="X31" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y31" s="31">
         <v>100</v>
@@ -13589,10 +13588,10 @@
         <v>0.03</v>
       </c>
       <c r="AA31" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB31" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC31" s="35">
         <v>5</v>
@@ -13658,14 +13657,14 @@
         <v>41</v>
       </c>
       <c r="U32" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V32" s="27"/>
       <c r="W32" s="24">
         <v>2</v>
       </c>
       <c r="X32" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y32" s="36">
         <v>100</v>
@@ -13674,10 +13673,10 @@
         <v>0.03</v>
       </c>
       <c r="AA32" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC32" s="35">
         <v>5</v>
@@ -13748,13 +13747,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="V33" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W33" s="24">
         <v>2</v>
       </c>
       <c r="X33" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y33" s="36">
         <v>100</v>
@@ -13763,10 +13762,10 @@
         <v>0.03</v>
       </c>
       <c r="AA33" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB33" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC33" s="35">
         <v>5</v>
@@ -13835,13 +13834,13 @@
         <v>29.9</v>
       </c>
       <c r="V34" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W34" s="24">
         <v>2</v>
       </c>
       <c r="X34" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y34" s="31">
         <v>100</v>
@@ -13850,10 +13849,10 @@
         <v>0.03</v>
       </c>
       <c r="AA34" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB34" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC34" s="35">
         <v>5</v>
@@ -13922,13 +13921,13 @@
         <v>45.6</v>
       </c>
       <c r="V35" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W35" s="24">
         <v>2</v>
       </c>
       <c r="X35" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y35" s="36">
         <v>100</v>
@@ -13937,10 +13936,10 @@
         <v>0.03</v>
       </c>
       <c r="AA35" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB35" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC35" s="35">
         <v>5</v>
@@ -13951,7 +13950,7 @@
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="28">
         <v>45392</v>
@@ -14009,13 +14008,13 @@
         <v>10.1</v>
       </c>
       <c r="V36" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W36" s="24">
         <v>2</v>
       </c>
       <c r="X36" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y36" s="36">
         <v>100</v>
@@ -14024,10 +14023,10 @@
         <v>0.03</v>
       </c>
       <c r="AA36" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB36" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC36" s="35">
         <v>5</v>
@@ -14038,7 +14037,7 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="28">
         <v>45392</v>
@@ -14096,13 +14095,13 @@
         <v>67.7</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W37" s="24">
         <v>2</v>
       </c>
       <c r="X37" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y37" s="30">
         <v>100</v>
@@ -14111,10 +14110,10 @@
         <v>0.03</v>
       </c>
       <c r="AA37" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB37" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC37" s="35">
         <v>5</v>
@@ -14125,7 +14124,7 @@
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="28">
         <v>45392</v>
@@ -14183,13 +14182,13 @@
         <v>112.8</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W38" s="24">
         <v>2</v>
       </c>
       <c r="X38" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y38" s="30">
         <v>100</v>
@@ -14198,10 +14197,10 @@
         <v>0.03</v>
       </c>
       <c r="AA38" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB38" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC38" s="35">
         <v>5</v>
@@ -14212,7 +14211,7 @@
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="28">
         <v>45392</v>
@@ -14270,13 +14269,13 @@
         <v>12.6</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W39" s="24">
         <v>2</v>
       </c>
       <c r="X39" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y39" s="30">
         <v>100</v>
@@ -14308,11 +14307,11 @@
   <dimension ref="B4:AD39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C18:C20"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14334,7 +14333,7 @@
   <sheetData>
     <row r="4" spans="2:30" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="T4" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>50</v>
@@ -14343,13 +14342,13 @@
         <v>38</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AA4" t="s">
         <v>49</v>
       </c>
       <c r="AB4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC4" t="s">
         <v>49</v>
@@ -14357,7 +14356,7 @@
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -14372,21 +14371,21 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="19"/>
       <c r="AA5" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -14394,7 +14393,7 @@
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="62" t="s">
         <v>0</v>
@@ -14406,46 +14405,46 @@
         <v>1</v>
       </c>
       <c r="F6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="I6" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="J6" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="K6" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="L6" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="M6" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="N6" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="O6" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="P6" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="Q6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="R6" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="Q6" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="R6" s="62" t="s">
-        <v>110</v>
-      </c>
       <c r="S6" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T6" s="62" t="s">
         <v>2</v>
@@ -14463,7 +14462,7 @@
         <v>6</v>
       </c>
       <c r="Y6" s="62" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="Z6" s="62" t="s">
         <v>7</v>
@@ -14478,7 +14477,7 @@
         <v>10</v>
       </c>
       <c r="AD6" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.55000000000000004">
@@ -16701,7 +16700,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AD33" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.55000000000000004">
@@ -16788,7 +16787,7 @@
         <v>29.9</v>
       </c>
       <c r="AD34" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.55000000000000004">
@@ -16875,12 +16874,12 @@
         <v>45.6</v>
       </c>
       <c r="AD35" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="28">
         <v>45392</v>
@@ -16962,12 +16961,12 @@
         <v>10.1</v>
       </c>
       <c r="AD36" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="28">
         <v>45392</v>
@@ -17049,12 +17048,12 @@
         <v>67.7</v>
       </c>
       <c r="AD37" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="28">
         <v>45392</v>
@@ -17136,12 +17135,12 @@
         <v>112.8</v>
       </c>
       <c r="AD38" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="65">
         <v>45392</v>
@@ -17223,7 +17222,7 @@
         <v>12.6</v>
       </c>
       <c r="AD39" s="70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -17239,9 +17238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946DA809-6F7B-4F40-B49B-27E3855F241E}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17267,81 +17264,81 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="72"/>
       <c r="B1" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="E1" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="F1" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="G1" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="H1" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="I1" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="J1" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="K1" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="L1" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="M1" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="N1" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="72" t="s">
-        <v>110</v>
-      </c>
       <c r="O1" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="Q1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="R1" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="S1" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="T1" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="U1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="W1" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="72" t="s">
+      <c r="X1" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="72" t="s">
+      <c r="Y1" s="72" t="s">
         <v>95</v>
-      </c>
-      <c r="X1" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y1" s="72" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="73">
         <v>1</v>
@@ -17372,7 +17369,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="73">
         <v>0.54532269214902873</v>
@@ -17405,7 +17402,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="73">
         <v>-0.5693038369307919</v>
@@ -17440,7 +17437,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="73">
         <v>0.37186951414850039</v>
@@ -17477,7 +17474,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="73">
         <v>-0.52142976010762865</v>
@@ -17516,7 +17513,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="73">
         <v>-0.40937219968250366</v>
@@ -17557,7 +17554,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="73">
         <v>0.2064701282579329</v>
@@ -17600,7 +17597,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="73">
         <v>0.2064701282579329</v>
@@ -17645,7 +17642,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="73">
         <v>4.7941143432472522E-2</v>
@@ -17692,7 +17689,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="73">
         <v>-0.42354601289696908</v>
@@ -17741,7 +17738,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="73">
         <v>-0.56094629067505208</v>
@@ -17792,7 +17789,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" s="73">
         <v>5.4122225092713113E-3</v>
@@ -17845,7 +17842,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="73">
         <v>6.8298341815840067E-15</v>
@@ -17900,7 +17897,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="73" t="e">
         <v>#DIV/0!</v>
@@ -17957,7 +17954,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="73">
         <v>-0.63644724213007908</v>
@@ -18016,7 +18013,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="73">
         <v>-0.63090569434588195</v>
@@ -18077,7 +18074,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="73">
         <v>-0.26911365410861021</v>
@@ -18140,7 +18137,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="73" t="e">
         <v>#DIV/0!</v>
@@ -18205,7 +18202,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="73" t="e">
         <v>#DIV/0!</v>
@@ -18272,7 +18269,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B21" s="73">
         <v>-0.65684655212468779</v>
@@ -18341,7 +18338,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="73">
         <v>-0.6139086961176804</v>
@@ -18412,7 +18409,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="73">
         <v>-0.21401478203302254</v>
@@ -18485,7 +18482,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="73">
         <v>0.88528380522770744</v>
@@ -18560,7 +18557,7 @@
     </row>
     <row r="25" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="74">
         <v>-0.53311575526124477</v>
@@ -18657,9 +18654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFD9269-7F18-4E64-8D48-3C1F1E4D91C0}">
   <dimension ref="B2:AF47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16:C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -18690,13 +18687,13 @@
         <v>38</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AC2" t="s">
         <v>49</v>
       </c>
       <c r="AD2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AE2" t="s">
         <v>49</v>
@@ -18704,7 +18701,7 @@
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="F3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -18719,25 +18716,25 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T3" s="9"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z3" s="19"/>
       <c r="AA3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
@@ -18757,46 +18754,46 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>2</v>
@@ -18820,7 +18817,7 @@
         <v>43</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>7</v>
@@ -18835,7 +18832,7 @@
         <v>10</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21462,7 +21459,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AF31" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.55000000000000004">
@@ -21561,7 +21558,7 @@
         <v>29.9</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.55000000000000004">
@@ -21660,12 +21657,12 @@
         <v>45.6</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="54">
         <v>45392</v>
@@ -21759,12 +21756,12 @@
         <v>10.1</v>
       </c>
       <c r="AF34" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="52">
         <v>45392</v>
@@ -21858,12 +21855,12 @@
         <v>67.7</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="52">
         <v>45392</v>
@@ -21957,12 +21954,12 @@
         <v>112.8</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="52">
         <v>45392</v>
@@ -22056,12 +22053,12 @@
         <v>12.6</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
@@ -22154,7 +22151,7 @@
     </row>
     <row r="40" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
@@ -22247,7 +22244,7 @@
     </row>
     <row r="41" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
@@ -22340,7 +22337,7 @@
     </row>
     <row r="42" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
@@ -22433,7 +22430,7 @@
     </row>
     <row r="43" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
@@ -22526,7 +22523,7 @@
     </row>
     <row r="44" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
@@ -22619,7 +22616,7 @@
     </row>
     <row r="45" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
@@ -22712,7 +22709,7 @@
     </row>
     <row r="46" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
@@ -22805,7 +22802,7 @@
     </row>
     <row r="47" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>

--- a/chapter3/input/chapter3_demo_data.xlsx
+++ b/chapter3/input/chapter3_demo_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter3\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E397AE-C02D-46D4-8923-8F7D66AA4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE19C14-A254-4B7A-A9CC-7DC93E144C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="890" yWindow="2680" windowWidth="34540" windowHeight="17720" activeTab="6" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
+    <workbookView xWindow="1050" yWindow="3050" windowWidth="29720" windowHeight="17720" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
   </bookViews>
   <sheets>
     <sheet name="初期データ" sheetId="2" r:id="rId1"/>
-    <sheet name="整形Step1" sheetId="4" r:id="rId2"/>
-    <sheet name="整形Step2" sheetId="5" r:id="rId3"/>
-    <sheet name="整形Step3" sheetId="6" r:id="rId4"/>
+    <sheet name="整形処理1" sheetId="4" r:id="rId2"/>
+    <sheet name="整形処理2" sheetId="5" r:id="rId3"/>
+    <sheet name="整形処理3" sheetId="6" r:id="rId4"/>
     <sheet name="整形後" sheetId="7" r:id="rId5"/>
     <sheet name="ヒートマップ" sheetId="8" r:id="rId6"/>
     <sheet name="元データ" sheetId="1" r:id="rId7"/>
@@ -1157,6 +1157,24 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,24 +1191,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2581,7 +2581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29A7775-745C-46D9-8F8E-94D6562DAC1D}">
   <dimension ref="B5:AJ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -2717,103 +2717,103 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="83">
         <v>45310</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="77">
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="83">
         <v>45321</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78">
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84">
         <v>45329</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="77">
+      <c r="P6" s="84"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="83">
         <v>45337</v>
       </c>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="77">
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="83">
         <v>45350</v>
       </c>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="77">
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="83">
         <v>45366</v>
       </c>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="77">
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="83">
         <v>45392</v>
       </c>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="79"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="85"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="80" t="s">
+      <c r="D7" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="80" t="s">
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="80" t="s">
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="82"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="88"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
@@ -4476,34 +4476,34 @@
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="85"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="79"/>
       <c r="AD25" s="8">
         <v>9.8199999999999985</v>
       </c>
@@ -4641,65 +4641,65 @@
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="86" t="s">
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="88"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="82"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="21"/>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="82"/>
       <c r="R29" s="47">
         <v>100</v>
       </c>
@@ -4763,22 +4763,22 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="82"/>
       <c r="R30" s="47">
         <v>0.01</v>
       </c>
@@ -5330,17 +5330,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D25:AC25"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="R28:AJ28"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AD6:AJ6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="R6:U6"/>
     <mergeCell ref="D7:H7"/>
@@ -5348,6 +5337,17 @@
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AD6:AJ6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="D25:AC25"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="R28:AJ28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18654,7 +18654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFD9269-7F18-4E64-8D48-3C1F1E4D91C0}">
   <dimension ref="B2:AF47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>

--- a/chapter3/input/chapter3_demo_data.xlsx
+++ b/chapter3/input/chapter3_demo_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter3\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE19C14-A254-4B7A-A9CC-7DC93E144C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104C61A9-DD08-48E9-92BE-976B5749AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="3050" windowWidth="29720" windowHeight="17720" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
+    <workbookView xWindow="7370" yWindow="500" windowWidth="29720" windowHeight="17720" activeTab="4" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
   </bookViews>
   <sheets>
     <sheet name="初期データ" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="整形処理2" sheetId="5" r:id="rId3"/>
     <sheet name="整形処理3" sheetId="6" r:id="rId4"/>
     <sheet name="整形後" sheetId="7" r:id="rId5"/>
-    <sheet name="ヒートマップ" sheetId="8" r:id="rId6"/>
+    <sheet name="ヒートマップ" sheetId="9" r:id="rId6"/>
     <sheet name="元データ" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="136">
   <si>
     <t>サンプル作成日</t>
     <rPh sb="4" eb="7">
@@ -687,8 +687,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>材料１</t>
+  </si>
+  <si>
+    <t>材料２</t>
+  </si>
+  <si>
+    <t>材料３</t>
+  </si>
+  <si>
+    <t>材料４</t>
+  </si>
+  <si>
+    <t>材料５</t>
+  </si>
+  <si>
+    <t>材料６</t>
+  </si>
+  <si>
+    <t>材料７</t>
+  </si>
+  <si>
+    <t>材料８</t>
+  </si>
+  <si>
+    <t>材料９</t>
+  </si>
+  <si>
+    <t>材料１０</t>
+  </si>
+  <si>
+    <t>材料１１</t>
+  </si>
+  <si>
+    <t>材料１２</t>
+  </si>
+  <si>
+    <t>材料１３</t>
+  </si>
+  <si>
     <t>耐擦過性</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -925,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,18 +1177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1217,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2581,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29A7775-745C-46D9-8F8E-94D6562DAC1D}">
   <dimension ref="B5:AJ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
@@ -2717,103 +2752,103 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="79">
         <v>45310</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="83">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="79">
         <v>45321</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84">
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80">
         <v>45329</v>
       </c>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="83">
+      <c r="P6" s="80"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="79">
         <v>45337</v>
       </c>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="83">
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="79">
         <v>45350</v>
       </c>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="83">
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="79">
         <v>45366</v>
       </c>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="83">
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="79">
         <v>45392</v>
       </c>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="85"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="81"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="86" t="s">
+      <c r="D7" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="86" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="86" t="s">
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="88"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="84"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
@@ -4476,34 +4511,34 @@
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="79"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="75"/>
       <c r="AD25" s="8">
         <v>9.8199999999999985</v>
       </c>
@@ -4641,65 +4676,65 @@
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="80" t="s">
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="81"/>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="82"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="78"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="21"/>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="82"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="78"/>
       <c r="R29" s="47">
         <v>100</v>
       </c>
@@ -4763,22 +4798,22 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="82"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="78"/>
       <c r="R30" s="47">
         <v>0.01</v>
       </c>
@@ -4798,7 +4833,7 @@
         <v>0.03</v>
       </c>
       <c r="X30" s="47">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y30" s="47">
         <v>0.03</v>
@@ -5359,7 +5394,7 @@
   <dimension ref="B5:AJ36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
@@ -7845,7 +7880,7 @@
         <v>0.03</v>
       </c>
       <c r="X30" s="47">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y30" s="47">
         <v>0.03</v>
@@ -10282,7 +10317,7 @@
         <v>100</v>
       </c>
       <c r="Y27" s="38">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Z27" s="24" t="s">
         <v>60</v>
@@ -11318,7 +11353,7 @@
   <dimension ref="B5:AD39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight"/>
@@ -13245,7 +13280,7 @@
         <v>100</v>
       </c>
       <c r="Z27" s="38">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AA27" s="24" t="s">
         <v>60</v>
@@ -14306,8 +14341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC155531-539F-473A-BEFE-FAB0C4C3EE43}">
   <dimension ref="B4:AD39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -16176,7 +16211,7 @@
         <v>100</v>
       </c>
       <c r="V27" s="38">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="W27" s="30">
         <v>10</v>
@@ -17235,1406 +17270,1387 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946DA809-6F7B-4F40-B49B-27E3855F241E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FCD36-4939-467E-95CA-2D9070DB49FB}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="72"/>
-      <c r="B1" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="72" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="P1" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="R1" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="U1" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="72" t="s">
+      <c r="B2" s="85">
+        <v>1</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="85">
+        <v>0.54532269214902873</v>
+      </c>
+      <c r="C3" s="85">
+        <v>1</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="85">
+        <v>-0.5693038369307919</v>
+      </c>
+      <c r="C4" s="85">
+        <v>-0.99796012768573961</v>
+      </c>
+      <c r="D4" s="85">
+        <v>1</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="85">
+        <v>0.37186951414850039</v>
+      </c>
+      <c r="C5" s="85">
+        <v>0.78685883447847571</v>
+      </c>
+      <c r="D5" s="85">
+        <v>-0.78525374292679184</v>
+      </c>
+      <c r="E5" s="85">
+        <v>1</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="85">
+        <v>-0.52142976010762865</v>
+      </c>
+      <c r="C6" s="85">
+        <v>-0.80214333130506021</v>
+      </c>
+      <c r="D6" s="85">
+        <v>0.80050706133146232</v>
+      </c>
+      <c r="E6" s="85">
+        <v>-0.81378476241257014</v>
+      </c>
+      <c r="F6" s="85">
+        <v>1</v>
+      </c>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="85">
+        <v>-0.40937219968250366</v>
+      </c>
+      <c r="C7" s="85">
+        <v>-0.24062558079337174</v>
+      </c>
+      <c r="D7" s="85">
+        <v>0.24013473533300858</v>
+      </c>
+      <c r="E7" s="85">
+        <v>-0.17615657920993991</v>
+      </c>
+      <c r="F7" s="85">
+        <v>0.21844348946250985</v>
+      </c>
+      <c r="G7" s="85">
+        <v>1</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="85">
+        <v>0.2064701282579329</v>
+      </c>
+      <c r="C8" s="85">
+        <v>0.13363062095621231</v>
+      </c>
+      <c r="D8" s="85">
+        <v>-0.13335803155218626</v>
+      </c>
+      <c r="E8" s="85">
+        <v>9.7827974015615812E-2</v>
+      </c>
+      <c r="F8" s="85">
+        <v>-0.1213118698538683</v>
+      </c>
+      <c r="G8" s="85">
+        <v>-0.59150144445301611</v>
+      </c>
+      <c r="H8" s="85">
+        <v>1</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="85">
+        <v>0.2064701282579329</v>
+      </c>
+      <c r="C9" s="85">
+        <v>0.13363062095621234</v>
+      </c>
+      <c r="D9" s="85">
+        <v>-0.13335803155218626</v>
+      </c>
+      <c r="E9" s="85">
+        <v>9.7827974015615812E-2</v>
+      </c>
+      <c r="F9" s="85">
+        <v>-0.1213118698538683</v>
+      </c>
+      <c r="G9" s="85">
+        <v>-0.59150144445301611</v>
+      </c>
+      <c r="H9" s="85">
+        <v>-3.1250000000000097E-2</v>
+      </c>
+      <c r="I9" s="85">
+        <v>1</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="85">
+        <v>4.7941143432472522E-2</v>
+      </c>
+      <c r="C10" s="85">
+        <v>0.1689159811730441</v>
+      </c>
+      <c r="D10" s="85">
+        <v>-0.16857141413961296</v>
+      </c>
+      <c r="E10" s="85">
+        <v>0.15141990995385896</v>
+      </c>
+      <c r="F10" s="85">
+        <v>-0.12657001882882701</v>
+      </c>
+      <c r="G10" s="85">
+        <v>-4.0645506075046016E-2</v>
+      </c>
+      <c r="H10" s="85">
+        <v>2.2572347453581727E-2</v>
+      </c>
+      <c r="I10" s="85">
+        <v>2.2572347453581727E-2</v>
+      </c>
+      <c r="J10" s="85">
+        <v>1</v>
+      </c>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="85">
+        <v>-0.42354601289696908</v>
+      </c>
+      <c r="C11" s="85">
+        <v>-0.46770717334674256</v>
+      </c>
+      <c r="D11" s="85">
+        <v>0.46675311043265155</v>
+      </c>
+      <c r="E11" s="85">
+        <v>-0.41926274578121053</v>
+      </c>
+      <c r="F11" s="85">
+        <v>0.35045651291117474</v>
+      </c>
+      <c r="G11" s="85">
+        <v>0.11254231022778623</v>
+      </c>
+      <c r="H11" s="85">
+        <v>-6.2500000000000042E-2</v>
+      </c>
+      <c r="I11" s="85">
+        <v>-6.2500000000000042E-2</v>
+      </c>
+      <c r="J11" s="85">
+        <v>-0.7674598134217786</v>
+      </c>
+      <c r="K11" s="85">
+        <v>1</v>
+      </c>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="85">
+        <v>-0.56094629067505208</v>
+      </c>
+      <c r="C12" s="85">
+        <v>-0.48279450151921821</v>
+      </c>
+      <c r="D12" s="85">
+        <v>0.481809662382092</v>
+      </c>
+      <c r="E12" s="85">
+        <v>-0.3534430028951282</v>
+      </c>
+      <c r="F12" s="85">
+        <v>0.43828804592365272</v>
+      </c>
+      <c r="G12" s="85">
+        <v>0.27591017991328259</v>
+      </c>
+      <c r="H12" s="85">
+        <v>-0.15322580645161285</v>
+      </c>
+      <c r="I12" s="85">
+        <v>-0.15322580645161291</v>
+      </c>
+      <c r="J12" s="85">
+        <v>-8.1551706929069462E-2</v>
+      </c>
+      <c r="K12" s="85">
+        <v>0.22580645161290325</v>
+      </c>
+      <c r="L12" s="85">
+        <v>1</v>
+      </c>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="85">
+        <v>5.4122225092713113E-3</v>
+      </c>
+      <c r="C13" s="85">
+        <v>0.22252462162536571</v>
+      </c>
+      <c r="D13" s="85">
+        <v>-0.22207069981047078</v>
+      </c>
+      <c r="E13" s="85">
+        <v>0.1629052738543682</v>
+      </c>
+      <c r="F13" s="85">
+        <v>-0.20201116888279116</v>
+      </c>
+      <c r="G13" s="85">
+        <v>9.3703953559000658E-2</v>
+      </c>
+      <c r="H13" s="85">
+        <v>-5.2038180890226576E-2</v>
+      </c>
+      <c r="I13" s="85">
+        <v>-5.2038180890226576E-2</v>
+      </c>
+      <c r="J13" s="85">
+        <v>3.7587964797009037E-2</v>
+      </c>
+      <c r="K13" s="85">
+        <v>-0.10407636178045325</v>
+      </c>
+      <c r="L13" s="85">
+        <v>-0.6983188145269128</v>
+      </c>
+      <c r="M13" s="85">
+        <v>1</v>
+      </c>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="85">
+        <v>6.8298341815840067E-15</v>
+      </c>
+      <c r="C14" s="85">
+        <v>1.0443996526137254E-16</v>
+      </c>
+      <c r="D14" s="85">
+        <v>-1.0422692106773353E-16</v>
+      </c>
+      <c r="E14" s="85">
+        <v>1.5603704304785335E-17</v>
+      </c>
+      <c r="F14" s="85">
+        <v>-1.6554503680555037E-16</v>
+      </c>
+      <c r="G14" s="85">
+        <v>2.9587283593366958E-16</v>
+      </c>
+      <c r="H14" s="85">
+        <v>-6.9781887052612257E-17</v>
+      </c>
+      <c r="I14" s="85">
+        <v>-6.9781887052612257E-17</v>
+      </c>
+      <c r="J14" s="85">
+        <v>-2.3690120647793115E-16</v>
+      </c>
+      <c r="K14" s="85">
+        <v>0</v>
+      </c>
+      <c r="L14" s="85">
+        <v>-2.9713577712725213E-16</v>
+      </c>
+      <c r="M14" s="85">
+        <v>1.3072760860698715E-16</v>
+      </c>
+      <c r="N14" s="85">
+        <v>1</v>
+      </c>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="85">
+        <v>1</v>
+      </c>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="85">
+        <v>-0.63644724213007908</v>
+      </c>
+      <c r="C16" s="85">
+        <v>-0.64888568452304984</v>
+      </c>
+      <c r="D16" s="85">
+        <v>0.64756204058007127</v>
+      </c>
+      <c r="E16" s="85">
+        <v>-0.47503462477680736</v>
+      </c>
+      <c r="F16" s="85">
+        <v>0.58906809792264891</v>
+      </c>
+      <c r="G16" s="85">
+        <v>0.37082892492880132</v>
+      </c>
+      <c r="H16" s="85">
+        <v>-0.20593861776197844</v>
+      </c>
+      <c r="I16" s="85">
+        <v>-0.20593861776197844</v>
+      </c>
+      <c r="J16" s="85">
+        <v>-0.10960716207035329</v>
+      </c>
+      <c r="K16" s="85">
+        <v>0.30348848933344197</v>
+      </c>
+      <c r="L16" s="85">
+        <v>0.74403629643037428</v>
+      </c>
+      <c r="M16" s="85">
+        <v>-0.34293347338819458</v>
+      </c>
+      <c r="N16" s="85">
+        <v>-2.3598342282655199E-16</v>
+      </c>
+      <c r="O16" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="85">
+        <v>-0.63090569434588195</v>
+      </c>
+      <c r="C17" s="85">
+        <v>-0.64323583518874972</v>
+      </c>
+      <c r="D17" s="85">
+        <v>0.64192371621700783</v>
+      </c>
+      <c r="E17" s="85">
+        <v>-0.47089849706960152</v>
+      </c>
+      <c r="F17" s="85">
+        <v>0.58393908046967202</v>
+      </c>
+      <c r="G17" s="85">
+        <v>0.3676001165198311</v>
+      </c>
+      <c r="H17" s="85">
+        <v>-0.20414550968420586</v>
+      </c>
+      <c r="I17" s="85">
+        <v>-0.20414550968420586</v>
+      </c>
+      <c r="J17" s="85">
+        <v>-0.10865281222657011</v>
+      </c>
+      <c r="K17" s="85">
+        <v>0.3008460142714614</v>
+      </c>
+      <c r="L17" s="85">
+        <v>0.73755797047197014</v>
+      </c>
+      <c r="M17" s="85">
+        <v>-0.339947550747975</v>
+      </c>
+      <c r="N17" s="85">
+        <v>-2.1497449050234554E-16</v>
+      </c>
+      <c r="O17" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="85">
+        <v>0.99129299741224342</v>
+      </c>
+      <c r="Q17" s="85">
+        <v>1</v>
+      </c>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="85">
+        <v>-0.23585737871463944</v>
+      </c>
+      <c r="C18" s="85">
+        <v>-0.56694670951384141</v>
+      </c>
+      <c r="D18" s="85">
+        <v>0.56495355180761331</v>
+      </c>
+      <c r="E18" s="85">
+        <v>-0.35888261168794822</v>
+      </c>
+      <c r="F18" s="85">
+        <v>0.48462175706697358</v>
+      </c>
+      <c r="G18" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="85">
+        <v>-7.3308961400745887E-2</v>
+      </c>
+      <c r="K18" s="85">
+        <v>0.21174738846497995</v>
+      </c>
+      <c r="L18" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="85">
+        <v>1.6525460586108752E-15</v>
+      </c>
+      <c r="O18" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="85">
+        <v>0</v>
+      </c>
+      <c r="R18" s="85">
+        <v>1</v>
+      </c>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" s="85">
+        <v>1</v>
+      </c>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="85">
+        <v>1</v>
+      </c>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="85">
+        <v>-0.65684655212468779</v>
+      </c>
+      <c r="C21" s="85">
+        <v>-0.74501977471698688</v>
+      </c>
+      <c r="D21" s="85">
+        <v>0.74350002950496497</v>
+      </c>
+      <c r="E21" s="85">
+        <v>-0.54541223142273476</v>
+      </c>
+      <c r="F21" s="85">
+        <v>0.67634005815658671</v>
+      </c>
+      <c r="G21" s="85">
+        <v>0.30504180067972075</v>
+      </c>
+      <c r="H21" s="85">
+        <v>-0.15636742794798861</v>
+      </c>
+      <c r="I21" s="85">
+        <v>-0.15636742794798861</v>
+      </c>
+      <c r="J21" s="85">
+        <v>-0.12584574623964012</v>
+      </c>
+      <c r="K21" s="85">
+        <v>0.34845109292030901</v>
+      </c>
+      <c r="L21" s="85">
+        <v>0.76338890244138069</v>
+      </c>
+      <c r="M21" s="85">
+        <v>-0.38484971956554048</v>
+      </c>
+      <c r="N21" s="85">
+        <v>2.2613484572857596E-16</v>
+      </c>
+      <c r="O21" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="85">
+        <v>0.78920382806196909</v>
+      </c>
+      <c r="Q21" s="85">
+        <v>0.79023941466963321</v>
+      </c>
+      <c r="R21" s="85">
+        <v>0.99387189842671075</v>
+      </c>
+      <c r="S21" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" s="85">
+        <v>1</v>
+      </c>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="72" t="s">
+      <c r="B22" s="85">
+        <v>-0.6139086961176804</v>
+      </c>
+      <c r="C22" s="85">
+        <v>-0.5947704002421923</v>
+      </c>
+      <c r="D22" s="85">
+        <v>0.59355714456939646</v>
+      </c>
+      <c r="E22" s="85">
+        <v>-0.55235314072510733</v>
+      </c>
+      <c r="F22" s="85">
+        <v>0.46221314622956378</v>
+      </c>
+      <c r="G22" s="85">
+        <v>0.17095594914778819</v>
+      </c>
+      <c r="H22" s="85">
+        <v>-9.7651533876473781E-2</v>
+      </c>
+      <c r="I22" s="85">
+        <v>-0.12945252681650973</v>
+      </c>
+      <c r="J22" s="85">
+        <v>-0.16682497990664674</v>
+      </c>
+      <c r="K22" s="85">
+        <v>0.75679938754267162</v>
+      </c>
+      <c r="L22" s="85">
+        <v>0.28988744818847967</v>
+      </c>
+      <c r="M22" s="85">
+        <v>-0.12730765766412053</v>
+      </c>
+      <c r="N22" s="85">
+        <v>-5.1107312306118231E-16</v>
+      </c>
+      <c r="O22" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="85">
+        <v>0.38961465936441286</v>
+      </c>
+      <c r="Q22" s="85">
+        <v>0.38622228351709892</v>
+      </c>
+      <c r="R22" s="85">
+        <v>0.27418697316217144</v>
+      </c>
+      <c r="S22" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="85">
+        <v>0.44233475653467785</v>
+      </c>
+      <c r="V22" s="85">
+        <v>1</v>
+      </c>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="72" t="s">
+      <c r="B23" s="85">
+        <v>-0.21401478203302254</v>
+      </c>
+      <c r="C23" s="85">
+        <v>0.6198960282048539</v>
+      </c>
+      <c r="D23" s="85">
+        <v>-0.6186315194591987</v>
+      </c>
+      <c r="E23" s="85">
+        <v>0.48946860211463999</v>
+      </c>
+      <c r="F23" s="85">
+        <v>-0.48615421148870491</v>
+      </c>
+      <c r="G23" s="85">
+        <v>0.12338455418429231</v>
+      </c>
+      <c r="H23" s="85">
+        <v>-6.5234209302127172E-2</v>
+      </c>
+      <c r="I23" s="85">
+        <v>-6.5234209302127172E-2</v>
+      </c>
+      <c r="J23" s="85">
+        <v>8.9003793955071492E-2</v>
+      </c>
+      <c r="K23" s="85">
+        <v>-4.5466267089361322E-2</v>
+      </c>
+      <c r="L23" s="85">
+        <v>2.8057724431021706E-3</v>
+      </c>
+      <c r="M23" s="85">
+        <v>0.29692043293801551</v>
+      </c>
+      <c r="N23" s="85">
+        <v>-1.4953176328571059E-15</v>
+      </c>
+      <c r="O23" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="85">
+        <v>-0.12444351312777445</v>
+      </c>
+      <c r="Q23" s="85">
+        <v>-0.12335998313694138</v>
+      </c>
+      <c r="R23" s="85">
+        <v>-0.48061968577835246</v>
+      </c>
+      <c r="S23" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="85">
+        <v>-0.22700623618415558</v>
+      </c>
+      <c r="V23" s="85">
+        <v>-1.911066179871496E-2</v>
+      </c>
+      <c r="W23" s="85">
+        <v>1</v>
+      </c>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="72" t="s">
+      <c r="B24" s="85">
+        <v>0.88528380522770744</v>
+      </c>
+      <c r="C24" s="85">
+        <v>0.23877755083096783</v>
+      </c>
+      <c r="D24" s="85">
+        <v>-0.26368965366492136</v>
+      </c>
+      <c r="E24" s="85">
+        <v>0.12156889234959198</v>
+      </c>
+      <c r="F24" s="85">
+        <v>-0.28454014655997628</v>
+      </c>
+      <c r="G24" s="85">
+        <v>-0.49782758967774171</v>
+      </c>
+      <c r="H24" s="85">
+        <v>9.1766396712619255E-2</v>
+      </c>
+      <c r="I24" s="85">
+        <v>0.20604153224154134</v>
+      </c>
+      <c r="J24" s="85">
+        <v>2.501292668571123E-3</v>
+      </c>
+      <c r="K24" s="85">
+        <v>-0.24240180263710734</v>
+      </c>
+      <c r="L24" s="85">
+        <v>-0.44950454092705999</v>
+      </c>
+      <c r="M24" s="85">
+        <v>-9.4570075977804618E-2</v>
+      </c>
+      <c r="N24" s="85">
+        <v>-9.7431870026720007E-16</v>
+      </c>
+      <c r="O24" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="85">
+        <v>-0.48523636547251753</v>
+      </c>
+      <c r="Q24" s="85">
+        <v>-0.48101141118267471</v>
+      </c>
+      <c r="R24" s="85">
+        <v>2.0299948573528733E-2</v>
+      </c>
+      <c r="S24" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="85" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="85">
+        <v>-0.46861278010777019</v>
+      </c>
+      <c r="V24" s="85">
+        <v>-0.36164875740461316</v>
+      </c>
+      <c r="W24" s="85">
+        <v>-0.43432737670120619</v>
+      </c>
+      <c r="X24" s="85">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="85"/>
+    </row>
+    <row r="25" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="86" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="73">
-        <v>1</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="73">
-        <v>0.54532269214902873</v>
-      </c>
-      <c r="C3" s="73">
-        <v>1</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="73">
-        <v>-0.5693038369307919</v>
-      </c>
-      <c r="C4" s="73">
-        <v>-0.99796012768573961</v>
-      </c>
-      <c r="D4" s="73">
-        <v>1</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="73">
-        <v>0.37186951414850039</v>
-      </c>
-      <c r="C5" s="73">
-        <v>0.78685883447847571</v>
-      </c>
-      <c r="D5" s="73">
-        <v>-0.78525374292679184</v>
-      </c>
-      <c r="E5" s="73">
-        <v>1</v>
-      </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="73">
-        <v>-0.52142976010762865</v>
-      </c>
-      <c r="C6" s="73">
-        <v>-0.80214333130506021</v>
-      </c>
-      <c r="D6" s="73">
-        <v>0.80050706133146232</v>
-      </c>
-      <c r="E6" s="73">
-        <v>-0.81378476241257014</v>
-      </c>
-      <c r="F6" s="73">
-        <v>1</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="73">
-        <v>-0.40937219968250366</v>
-      </c>
-      <c r="C7" s="73">
-        <v>-0.24062558079337174</v>
-      </c>
-      <c r="D7" s="73">
-        <v>0.24013473533300858</v>
-      </c>
-      <c r="E7" s="73">
-        <v>-0.17615657920993991</v>
-      </c>
-      <c r="F7" s="73">
-        <v>0.21844348946250985</v>
-      </c>
-      <c r="G7" s="73">
-        <v>1</v>
-      </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="73">
-        <v>0.2064701282579329</v>
-      </c>
-      <c r="C8" s="73">
-        <v>0.13363062095621231</v>
-      </c>
-      <c r="D8" s="73">
-        <v>-0.13335803155218626</v>
-      </c>
-      <c r="E8" s="73">
-        <v>9.7827974015615812E-2</v>
-      </c>
-      <c r="F8" s="73">
-        <v>-0.1213118698538683</v>
-      </c>
-      <c r="G8" s="73">
-        <v>-0.59150144445301611</v>
-      </c>
-      <c r="H8" s="73">
-        <v>1</v>
-      </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="73">
-        <v>0.2064701282579329</v>
-      </c>
-      <c r="C9" s="73">
-        <v>0.13363062095621234</v>
-      </c>
-      <c r="D9" s="73">
-        <v>-0.13335803155218626</v>
-      </c>
-      <c r="E9" s="73">
-        <v>9.7827974015615812E-2</v>
-      </c>
-      <c r="F9" s="73">
-        <v>-0.1213118698538683</v>
-      </c>
-      <c r="G9" s="73">
-        <v>-0.59150144445301611</v>
-      </c>
-      <c r="H9" s="73">
-        <v>-3.1250000000000097E-2</v>
-      </c>
-      <c r="I9" s="73">
-        <v>1</v>
-      </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="73">
-        <v>4.7941143432472522E-2</v>
-      </c>
-      <c r="C10" s="73">
-        <v>0.1689159811730441</v>
-      </c>
-      <c r="D10" s="73">
-        <v>-0.16857141413961296</v>
-      </c>
-      <c r="E10" s="73">
-        <v>0.15141990995385896</v>
-      </c>
-      <c r="F10" s="73">
-        <v>-0.12657001882882701</v>
-      </c>
-      <c r="G10" s="73">
-        <v>-4.0645506075046016E-2</v>
-      </c>
-      <c r="H10" s="73">
-        <v>2.2572347453581727E-2</v>
-      </c>
-      <c r="I10" s="73">
-        <v>2.2572347453581727E-2</v>
-      </c>
-      <c r="J10" s="73">
-        <v>1</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="73">
-        <v>-0.42354601289696908</v>
-      </c>
-      <c r="C11" s="73">
-        <v>-0.46770717334674256</v>
-      </c>
-      <c r="D11" s="73">
-        <v>0.46675311043265155</v>
-      </c>
-      <c r="E11" s="73">
-        <v>-0.41926274578121053</v>
-      </c>
-      <c r="F11" s="73">
-        <v>0.35045651291117474</v>
-      </c>
-      <c r="G11" s="73">
-        <v>0.11254231022778623</v>
-      </c>
-      <c r="H11" s="73">
-        <v>-6.2500000000000042E-2</v>
-      </c>
-      <c r="I11" s="73">
-        <v>-6.2500000000000042E-2</v>
-      </c>
-      <c r="J11" s="73">
-        <v>-0.7674598134217786</v>
-      </c>
-      <c r="K11" s="73">
-        <v>1</v>
-      </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="73">
-        <v>-0.56094629067505208</v>
-      </c>
-      <c r="C12" s="73">
-        <v>-0.48279450151921821</v>
-      </c>
-      <c r="D12" s="73">
-        <v>0.481809662382092</v>
-      </c>
-      <c r="E12" s="73">
-        <v>-0.3534430028951282</v>
-      </c>
-      <c r="F12" s="73">
-        <v>0.43828804592365272</v>
-      </c>
-      <c r="G12" s="73">
-        <v>0.27591017991328259</v>
-      </c>
-      <c r="H12" s="73">
-        <v>-0.15322580645161285</v>
-      </c>
-      <c r="I12" s="73">
-        <v>-0.15322580645161291</v>
-      </c>
-      <c r="J12" s="73">
-        <v>-8.1551706929069462E-2</v>
-      </c>
-      <c r="K12" s="73">
-        <v>0.22580645161290325</v>
-      </c>
-      <c r="L12" s="73">
-        <v>1</v>
-      </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="73">
-        <v>5.4122225092713113E-3</v>
-      </c>
-      <c r="C13" s="73">
-        <v>0.22252462162536571</v>
-      </c>
-      <c r="D13" s="73">
-        <v>-0.22207069981047078</v>
-      </c>
-      <c r="E13" s="73">
-        <v>0.1629052738543682</v>
-      </c>
-      <c r="F13" s="73">
-        <v>-0.20201116888279116</v>
-      </c>
-      <c r="G13" s="73">
-        <v>9.3703953559000658E-2</v>
-      </c>
-      <c r="H13" s="73">
-        <v>-5.2038180890226576E-2</v>
-      </c>
-      <c r="I13" s="73">
-        <v>-5.2038180890226576E-2</v>
-      </c>
-      <c r="J13" s="73">
-        <v>3.7587964797009037E-2</v>
-      </c>
-      <c r="K13" s="73">
-        <v>-0.10407636178045325</v>
-      </c>
-      <c r="L13" s="73">
-        <v>-0.6983188145269128</v>
-      </c>
-      <c r="M13" s="73">
-        <v>1</v>
-      </c>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="73">
-        <v>6.8298341815840067E-15</v>
-      </c>
-      <c r="C14" s="73">
-        <v>1.0443996526137254E-16</v>
-      </c>
-      <c r="D14" s="73">
-        <v>-1.0422692106773353E-16</v>
-      </c>
-      <c r="E14" s="73">
-        <v>1.5603704304785335E-17</v>
-      </c>
-      <c r="F14" s="73">
-        <v>-1.6554503680555037E-16</v>
-      </c>
-      <c r="G14" s="73">
-        <v>2.9587283593366958E-16</v>
-      </c>
-      <c r="H14" s="73">
-        <v>-6.9781887052612257E-17</v>
-      </c>
-      <c r="I14" s="73">
-        <v>-6.9781887052612257E-17</v>
-      </c>
-      <c r="J14" s="73">
-        <v>-2.3690120647793115E-16</v>
-      </c>
-      <c r="K14" s="73">
-        <v>0</v>
-      </c>
-      <c r="L14" s="73">
-        <v>-2.9713577712725213E-16</v>
-      </c>
-      <c r="M14" s="73">
-        <v>1.3072760860698715E-16</v>
-      </c>
-      <c r="N14" s="73">
-        <v>1</v>
-      </c>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="73" t="e">
+      <c r="B25" s="86">
+        <v>-0.53311575526124477</v>
+      </c>
+      <c r="C25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="C15" s="73" t="e">
+      <c r="D25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="73" t="e">
+      <c r="E25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="73" t="e">
+      <c r="F25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="73" t="e">
+      <c r="G25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="73" t="e">
+      <c r="H25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="73" t="e">
+      <c r="I25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="73" t="e">
+      <c r="J25" s="86">
+        <v>-0.36806088975493934</v>
+      </c>
+      <c r="K25" s="86">
+        <v>0.66445163137920571</v>
+      </c>
+      <c r="L25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="73" t="e">
+      <c r="M25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="73" t="e">
+      <c r="N25" s="86">
+        <v>-2.0100642720231223E-16</v>
+      </c>
+      <c r="O25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="73" t="e">
+      <c r="P25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="73" t="e">
+      <c r="Q25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="73" t="e">
+      <c r="R25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="O15" s="73">
-        <v>1</v>
-      </c>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="73">
-        <v>-0.63644724213007908</v>
-      </c>
-      <c r="C16" s="73">
-        <v>-0.64888568452304984</v>
-      </c>
-      <c r="D16" s="73">
-        <v>0.64756204058007127</v>
-      </c>
-      <c r="E16" s="73">
-        <v>-0.47503462477680736</v>
-      </c>
-      <c r="F16" s="73">
-        <v>0.58906809792264891</v>
-      </c>
-      <c r="G16" s="73">
-        <v>0.37082892492880132</v>
-      </c>
-      <c r="H16" s="73">
-        <v>-0.20593861776197844</v>
-      </c>
-      <c r="I16" s="73">
-        <v>-0.20593861776197844</v>
-      </c>
-      <c r="J16" s="73">
-        <v>-0.10960716207035329</v>
-      </c>
-      <c r="K16" s="73">
-        <v>0.30348848933344197</v>
-      </c>
-      <c r="L16" s="73">
-        <v>0.74403629643037428</v>
-      </c>
-      <c r="M16" s="73">
-        <v>-0.34293347338819458</v>
-      </c>
-      <c r="N16" s="73">
-        <v>-2.3598342282655199E-16</v>
-      </c>
-      <c r="O16" s="73" t="e">
+      <c r="S25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P16" s="73">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="73">
-        <v>-0.63090569434588195</v>
-      </c>
-      <c r="C17" s="73">
-        <v>-0.64323583518874972</v>
-      </c>
-      <c r="D17" s="73">
-        <v>0.64192371621700783</v>
-      </c>
-      <c r="E17" s="73">
-        <v>-0.47089849706960152</v>
-      </c>
-      <c r="F17" s="73">
-        <v>0.58393908046967202</v>
-      </c>
-      <c r="G17" s="73">
-        <v>0.3676001165198311</v>
-      </c>
-      <c r="H17" s="73">
-        <v>-0.20414550968420586</v>
-      </c>
-      <c r="I17" s="73">
-        <v>-0.20414550968420586</v>
-      </c>
-      <c r="J17" s="73">
-        <v>-0.10865281222657011</v>
-      </c>
-      <c r="K17" s="73">
-        <v>0.3008460142714614</v>
-      </c>
-      <c r="L17" s="73">
-        <v>0.73755797047197014</v>
-      </c>
-      <c r="M17" s="73">
-        <v>-0.339947550747975</v>
-      </c>
-      <c r="N17" s="73">
-        <v>-2.1497449050234554E-16</v>
-      </c>
-      <c r="O17" s="73" t="e">
+      <c r="T25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="73">
-        <v>0.99129299741224342</v>
-      </c>
-      <c r="Q17" s="73">
-        <v>1</v>
-      </c>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="73">
-        <v>-0.26911365410861021</v>
-      </c>
-      <c r="C18" s="73">
-        <v>-0.30860669992418377</v>
-      </c>
-      <c r="D18" s="73">
-        <v>0.30752176228926043</v>
-      </c>
-      <c r="E18" s="73">
-        <v>6.976819652324362E-2</v>
-      </c>
-      <c r="F18" s="73">
-        <v>0.26379467179224692</v>
-      </c>
-      <c r="G18" s="73" t="e">
+      <c r="U25" s="86" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="73">
-        <v>-3.9904344223381058E-2</v>
-      </c>
-      <c r="K18" s="73">
-        <v>0.11526067913468739</v>
-      </c>
-      <c r="L18" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="73">
-        <v>1.6764008022404885E-15</v>
-      </c>
-      <c r="O18" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="73">
-        <v>0</v>
-      </c>
-      <c r="R18" s="73">
-        <v>1</v>
-      </c>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="73">
-        <v>1</v>
-      </c>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="73">
-        <v>1</v>
-      </c>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="73">
-        <v>-0.65684655212468779</v>
-      </c>
-      <c r="C21" s="73">
-        <v>-0.74501977471698688</v>
-      </c>
-      <c r="D21" s="73">
-        <v>0.74350002950496497</v>
-      </c>
-      <c r="E21" s="73">
-        <v>-0.54541223142273476</v>
-      </c>
-      <c r="F21" s="73">
-        <v>0.67634005815658671</v>
-      </c>
-      <c r="G21" s="73">
-        <v>0.30504180067972075</v>
-      </c>
-      <c r="H21" s="73">
-        <v>-0.15636742794798861</v>
-      </c>
-      <c r="I21" s="73">
-        <v>-0.15636742794798861</v>
-      </c>
-      <c r="J21" s="73">
-        <v>-0.12584574623964012</v>
-      </c>
-      <c r="K21" s="73">
-        <v>0.34845109292030901</v>
-      </c>
-      <c r="L21" s="73">
-        <v>0.76338890244138069</v>
-      </c>
-      <c r="M21" s="73">
-        <v>-0.38484971956554048</v>
-      </c>
-      <c r="N21" s="73">
-        <v>2.2613484572857596E-16</v>
-      </c>
-      <c r="O21" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="73">
-        <v>0.78920382806196909</v>
-      </c>
-      <c r="Q21" s="73">
-        <v>0.79023941466963321</v>
-      </c>
-      <c r="R21" s="73">
-        <v>0.86221131987965471</v>
-      </c>
-      <c r="S21" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="73">
-        <v>1</v>
-      </c>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="73">
-        <v>-0.6139086961176804</v>
-      </c>
-      <c r="C22" s="73">
-        <v>-0.5947704002421923</v>
-      </c>
-      <c r="D22" s="73">
-        <v>0.59355714456939646</v>
-      </c>
-      <c r="E22" s="73">
-        <v>-0.55235314072510733</v>
-      </c>
-      <c r="F22" s="73">
-        <v>0.46221314622956378</v>
-      </c>
-      <c r="G22" s="73">
-        <v>0.17095594914778819</v>
-      </c>
-      <c r="H22" s="73">
-        <v>-9.7651533876473781E-2</v>
-      </c>
-      <c r="I22" s="73">
-        <v>-0.12945252681650973</v>
-      </c>
-      <c r="J22" s="73">
-        <v>-0.16682497990664674</v>
-      </c>
-      <c r="K22" s="73">
-        <v>0.75679938754267162</v>
-      </c>
-      <c r="L22" s="73">
-        <v>0.28988744818847967</v>
-      </c>
-      <c r="M22" s="73">
-        <v>-0.12730765766412053</v>
-      </c>
-      <c r="N22" s="73">
-        <v>-5.1107312306118231E-16</v>
-      </c>
-      <c r="O22" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="73">
-        <v>0.38961465936441286</v>
-      </c>
-      <c r="Q22" s="73">
-        <v>0.38622228351709892</v>
-      </c>
-      <c r="R22" s="73">
-        <v>0.13174403224453668</v>
-      </c>
-      <c r="S22" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="73">
-        <v>0.44233475653467785</v>
-      </c>
-      <c r="V22" s="73">
-        <v>1</v>
-      </c>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="73">
-        <v>-0.21401478203302254</v>
-      </c>
-      <c r="C23" s="73">
-        <v>0.6198960282048539</v>
-      </c>
-      <c r="D23" s="73">
-        <v>-0.6186315194591987</v>
-      </c>
-      <c r="E23" s="73">
-        <v>0.48946860211463999</v>
-      </c>
-      <c r="F23" s="73">
-        <v>-0.48615421148870491</v>
-      </c>
-      <c r="G23" s="73">
-        <v>0.12338455418429231</v>
-      </c>
-      <c r="H23" s="73">
-        <v>-6.5234209302127172E-2</v>
-      </c>
-      <c r="I23" s="73">
-        <v>-6.5234209302127172E-2</v>
-      </c>
-      <c r="J23" s="73">
-        <v>8.9003793955071492E-2</v>
-      </c>
-      <c r="K23" s="73">
-        <v>-4.5466267089361322E-2</v>
-      </c>
-      <c r="L23" s="73">
-        <v>2.8057724431021706E-3</v>
-      </c>
-      <c r="M23" s="73">
-        <v>0.29692043293801551</v>
-      </c>
-      <c r="N23" s="73">
-        <v>-1.4953176328571059E-15</v>
-      </c>
-      <c r="O23" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="73">
-        <v>-0.12444351312777445</v>
-      </c>
-      <c r="Q23" s="73">
-        <v>-0.12335998313694138</v>
-      </c>
-      <c r="R23" s="73">
-        <v>-0.2483609982908293</v>
-      </c>
-      <c r="S23" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="73">
-        <v>-0.22700623618415558</v>
-      </c>
-      <c r="V23" s="73">
-        <v>-1.911066179871496E-2</v>
-      </c>
-      <c r="W23" s="73">
-        <v>1</v>
-      </c>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="73">
-        <v>0.88528380522770744</v>
-      </c>
-      <c r="C24" s="73">
-        <v>0.23877755083096783</v>
-      </c>
-      <c r="D24" s="73">
-        <v>-0.26368965366492136</v>
-      </c>
-      <c r="E24" s="73">
-        <v>0.12156889234959198</v>
-      </c>
-      <c r="F24" s="73">
-        <v>-0.28454014655997628</v>
-      </c>
-      <c r="G24" s="73">
-        <v>-0.49782758967774171</v>
-      </c>
-      <c r="H24" s="73">
-        <v>9.1766396712619255E-2</v>
-      </c>
-      <c r="I24" s="73">
-        <v>0.20604153224154134</v>
-      </c>
-      <c r="J24" s="73">
-        <v>2.501292668571123E-3</v>
-      </c>
-      <c r="K24" s="73">
-        <v>-0.24240180263710734</v>
-      </c>
-      <c r="L24" s="73">
-        <v>-0.44950454092705999</v>
-      </c>
-      <c r="M24" s="73">
-        <v>-9.4570075977804618E-2</v>
-      </c>
-      <c r="N24" s="73">
-        <v>-9.7431870026720007E-16</v>
-      </c>
-      <c r="O24" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="73">
-        <v>-0.48523636547251753</v>
-      </c>
-      <c r="Q24" s="73">
-        <v>-0.48101141118267471</v>
-      </c>
-      <c r="R24" s="73">
-        <v>-0.14641107432910491</v>
-      </c>
-      <c r="S24" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="73" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="73">
-        <v>-0.46861278010777019</v>
-      </c>
-      <c r="V24" s="73">
-        <v>-0.36164875740461316</v>
-      </c>
-      <c r="W24" s="73">
-        <v>-0.43432737670120619</v>
-      </c>
-      <c r="X24" s="73">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="73"/>
-    </row>
-    <row r="25" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="74">
-        <v>-0.53311575526124477</v>
-      </c>
-      <c r="C25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="74">
-        <v>-0.36806088975493934</v>
-      </c>
-      <c r="K25" s="74">
-        <v>0.66445163137920571</v>
-      </c>
-      <c r="L25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="74">
-        <v>-2.0100642720231223E-16</v>
-      </c>
-      <c r="O25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="74">
+      <c r="V25" s="86">
         <v>0.63089909132674227</v>
       </c>
-      <c r="W25" s="74">
+      <c r="W25" s="86">
         <v>0.59991265498140522</v>
       </c>
-      <c r="X25" s="74">
+      <c r="X25" s="86">
         <v>-0.53311575526124488</v>
       </c>
-      <c r="Y25" s="74">
+      <c r="Y25" s="86">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:Y25">
+  <conditionalFormatting sqref="B2:Y25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -18654,9 +18670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFD9269-7F18-4E64-8D48-3C1F1E4D91C0}">
   <dimension ref="B2:AF47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -20840,7 +20856,7 @@
         <v>100</v>
       </c>
       <c r="V25" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="W25" s="1">
         <v>10</v>
@@ -22406,15 +22422,15 @@
       <c r="Z42" s="55">
         <v>2</v>
       </c>
-      <c r="AA42" s="75">
+      <c r="AA42" s="71">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AB42" s="76">
+      <c r="AB42" s="72">
         <f t="shared" si="14"/>
         <v>1.46</v>
       </c>
-      <c r="AC42" s="75">
+      <c r="AC42" s="71">
         <f t="shared" si="15"/>
         <v>9.1999999999999993</v>
       </c>
@@ -22422,7 +22438,7 @@
         <f t="shared" si="16"/>
         <v>34</v>
       </c>
-      <c r="AE42" s="75">
+      <c r="AE42" s="71">
         <f t="shared" si="17"/>
         <v>11.6</v>
       </c>
@@ -22499,15 +22515,15 @@
       <c r="Z43" s="55">
         <v>2</v>
       </c>
-      <c r="AA43" s="75">
+      <c r="AA43" s="71">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AB43" s="76">
+      <c r="AB43" s="72">
         <f t="shared" si="14"/>
         <v>1.43</v>
       </c>
-      <c r="AC43" s="75">
+      <c r="AC43" s="71">
         <f t="shared" si="15"/>
         <v>9.1</v>
       </c>
@@ -22515,7 +22531,7 @@
         <f t="shared" si="16"/>
         <v>34</v>
       </c>
-      <c r="AE43" s="75">
+      <c r="AE43" s="71">
         <f t="shared" si="17"/>
         <v>11.5</v>
       </c>
@@ -22592,15 +22608,15 @@
       <c r="Z44" s="55">
         <v>2</v>
       </c>
-      <c r="AA44" s="75">
+      <c r="AA44" s="71">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AB44" s="76">
+      <c r="AB44" s="72">
         <f t="shared" si="14"/>
         <v>1.41</v>
       </c>
-      <c r="AC44" s="75">
+      <c r="AC44" s="71">
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
@@ -22608,7 +22624,7 @@
         <f t="shared" si="16"/>
         <v>34</v>
       </c>
-      <c r="AE44" s="75">
+      <c r="AE44" s="71">
         <f t="shared" si="17"/>
         <v>11.4</v>
       </c>

--- a/chapter3/input/chapter3_demo_data.xlsx
+++ b/chapter3/input/chapter3_demo_data.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2021kaggle_f\practical-mi-guide\chapter3\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2B6C10-AEEA-4FBB-A8D6-49B5A47A04A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A49443-8B2A-4698-AA1E-0F8D093A24D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
+    <workbookView xWindow="4860" yWindow="4860" windowWidth="28800" windowHeight="15410" activeTab="6" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
   </bookViews>
   <sheets>
     <sheet name="初期データ" sheetId="2" r:id="rId1"/>
@@ -25,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1175,6 +1181,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,24 +1215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2301,9 +2307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2341,7 +2347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2447,7 +2453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2589,7 +2595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2606,28 +2612,28 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="19.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.9140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="41.59765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="51.69921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="49.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="49.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="41.58203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="48" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="49.69921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="49.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="51.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="51.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="11" t="s">
         <v>50</v>
       </c>
@@ -2731,109 +2737,109 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="81">
         <v>45310</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="75">
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="81">
         <v>45321</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76">
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82">
         <v>45329</v>
       </c>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="75">
+      <c r="P6" s="82"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="81">
         <v>45337</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="75">
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="81">
         <v>45350</v>
       </c>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="75">
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="81">
         <v>45366</v>
       </c>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="75">
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="81">
         <v>45392</v>
       </c>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="77"/>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="83"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="78" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="78" t="s">
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="80"/>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="AE7" s="85"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="85"/>
+      <c r="AJ7" s="86"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2883,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="20" t="s">
         <v>51</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
         <v>96</v>
@@ -3089,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
         <v>97</v>
@@ -3194,7 +3200,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>98</v>
@@ -3299,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
         <v>99</v>
@@ -3404,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="21"/>
       <c r="C14" s="1" t="s">
         <v>100</v>
@@ -3509,7 +3515,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="21"/>
       <c r="C15" s="1" t="s">
         <v>101</v>
@@ -3614,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
         <v>102</v>
@@ -3719,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
         <v>103</v>
@@ -3824,7 +3830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
         <v>104</v>
@@ -3929,7 +3935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
         <v>105</v>
@@ -4034,7 +4040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
         <v>106</v>
@@ -4139,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="22"/>
       <c r="C21" s="1" t="s">
         <v>107</v>
@@ -4244,7 +4250,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="9"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
@@ -4277,7 +4283,7 @@
       <c r="AF22" s="43"/>
       <c r="AG22" s="43"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="20" t="s">
         <v>52</v>
       </c>
@@ -4384,7 +4390,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="21"/>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -4489,39 +4495,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="36" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:36" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="16"/>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="83"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="77"/>
       <c r="AD25" s="8">
         <v>9.8199999999999985</v>
       </c>
@@ -4544,10 +4550,10 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="20" t="s">
         <v>54</v>
       </c>
@@ -4654,70 +4660,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="21"/>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="84" t="s">
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="86"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="80"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="21"/>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="86"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
       <c r="R29" s="47">
         <v>100</v>
       </c>
@@ -4776,27 +4782,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="22"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="86"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="80"/>
       <c r="R30" s="47">
         <v>0.01</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="D31" s="44"/>
@@ -4889,7 +4895,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="44"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="22"/>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -5101,7 +5107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -5134,7 +5140,7 @@
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="20" t="s">
         <v>55</v>
       </c>
@@ -5241,7 +5247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="22"/>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -5348,17 +5354,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D25:AC25"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="R28:AJ28"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AD6:AJ6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="R6:U6"/>
     <mergeCell ref="D7:H7"/>
@@ -5366,9 +5361,21 @@
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AD6:AJ6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="D25:AC25"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="R28:AJ28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5383,28 +5390,28 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="42.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="39.09765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="48.69921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="46.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="46.19921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.19921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="46.69921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="46.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="48.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="42.58203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="39.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="48.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="11" t="s">
         <v>50</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1" t="s">
         <v>135</v>
       </c>
@@ -5612,7 +5619,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5760,7 +5767,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="20" t="s">
         <v>51</v>
       </c>
@@ -5867,7 +5874,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
         <v>96</v>
@@ -5972,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
         <v>97</v>
@@ -6077,7 +6084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>98</v>
@@ -6182,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
         <v>99</v>
@@ -6287,7 +6294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="21"/>
       <c r="C14" s="1" t="s">
         <v>100</v>
@@ -6392,7 +6399,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="21"/>
       <c r="C15" s="1" t="s">
         <v>101</v>
@@ -6497,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
         <v>102</v>
@@ -6602,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
         <v>103</v>
@@ -6707,7 +6714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
         <v>104</v>
@@ -6812,7 +6819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
         <v>105</v>
@@ -6917,7 +6924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
         <v>106</v>
@@ -7022,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="22"/>
       <c r="C21" s="1" t="s">
         <v>107</v>
@@ -7127,7 +7134,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="9"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
@@ -7160,7 +7167,7 @@
       <c r="AF22" s="43"/>
       <c r="AG22" s="43"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="20" t="s">
         <v>52</v>
       </c>
@@ -7267,7 +7274,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="21"/>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -7372,7 +7379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="36" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:36" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="16"/>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -7477,10 +7484,10 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="20" t="s">
         <v>54</v>
       </c>
@@ -7587,7 +7594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="21"/>
       <c r="C28" s="1" t="s">
         <v>1</v>
@@ -7692,7 +7699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="21"/>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -7797,7 +7804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="22"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -7902,7 +7909,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="D31" s="44"/>
@@ -7936,7 +7943,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="44"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -8043,7 +8050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="22"/>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -8148,7 +8155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -8181,7 +8188,7 @@
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="20" t="s">
         <v>55</v>
       </c>
@@ -8288,7 +8295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="22"/>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -8396,6 +8403,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8407,27 +8415,27 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="8.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="18" t="s">
         <v>51</v>
       </c>
@@ -8463,7 +8471,7 @@
       </c>
       <c r="AC5" s="19"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="23" t="s">
         <v>50</v>
       </c>
@@ -8549,7 +8557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="23" t="s">
         <v>10</v>
       </c>
@@ -8633,7 +8641,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -8717,7 +8725,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
@@ -8801,7 +8809,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
@@ -8885,7 +8893,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
@@ -8969,7 +8977,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
@@ -9055,7 +9063,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="23" t="s">
         <v>17</v>
       </c>
@@ -9139,7 +9147,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
@@ -9223,7 +9231,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="23" t="s">
         <v>19</v>
       </c>
@@ -9307,7 +9315,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="23" t="s">
         <v>20</v>
       </c>
@@ -9391,7 +9399,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="23" t="s">
         <v>21</v>
       </c>
@@ -9475,7 +9483,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="23" t="s">
         <v>22</v>
       </c>
@@ -9559,7 +9567,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="23" t="s">
         <v>23</v>
       </c>
@@ -9643,7 +9651,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="23" t="s">
         <v>24</v>
       </c>
@@ -9727,7 +9735,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
@@ -9811,7 +9819,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="23" t="s">
         <v>26</v>
       </c>
@@ -9895,7 +9903,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="23" t="s">
         <v>27</v>
       </c>
@@ -9979,7 +9987,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="23" t="s">
         <v>28</v>
       </c>
@@ -10063,7 +10071,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="23" t="s">
         <v>29</v>
       </c>
@@ -10149,7 +10157,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="23" t="s">
         <v>30</v>
       </c>
@@ -10233,7 +10241,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="23" t="s">
         <v>31</v>
       </c>
@@ -10317,7 +10325,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="23" t="s">
         <v>32</v>
       </c>
@@ -10401,7 +10409,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
@@ -10485,7 +10493,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
@@ -10569,7 +10577,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
@@ -10653,7 +10661,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="23" t="s">
         <v>43</v>
       </c>
@@ -10737,7 +10745,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="23" t="s">
         <v>44</v>
       </c>
@@ -10823,7 +10831,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:29" ht="36" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:29" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="23" t="s">
         <v>45</v>
       </c>
@@ -10907,7 +10915,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="35" spans="2:29" ht="36" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:29" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="23" t="s">
         <v>46</v>
       </c>
@@ -10991,7 +10999,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="23" t="s">
         <v>62</v>
       </c>
@@ -11075,7 +11083,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="37" spans="2:29" ht="36" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:29" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
         <v>71</v>
       </c>
@@ -11159,7 +11167,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="38" spans="2:29" ht="36" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:29" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
         <v>72</v>
       </c>
@@ -11243,7 +11251,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
         <v>73</v>
       </c>
@@ -11330,6 +11338,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11344,28 +11353,28 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.296875" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
     <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="8.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="18" t="s">
         <v>51</v>
       </c>
@@ -11402,7 +11411,7 @@
       </c>
       <c r="AD5" s="19"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="23" t="s">
         <v>50</v>
       </c>
@@ -11491,7 +11500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="23" t="s">
         <v>10</v>
       </c>
@@ -11576,7 +11585,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -11661,7 +11670,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
@@ -11746,7 +11755,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
@@ -11831,7 +11840,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
@@ -11916,7 +11925,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
@@ -12003,7 +12012,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="23" t="s">
         <v>17</v>
       </c>
@@ -12088,7 +12097,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
@@ -12173,7 +12182,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="23" t="s">
         <v>19</v>
       </c>
@@ -12258,7 +12267,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="23" t="s">
         <v>20</v>
       </c>
@@ -12343,7 +12352,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="23" t="s">
         <v>21</v>
       </c>
@@ -12428,7 +12437,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="23" t="s">
         <v>22</v>
       </c>
@@ -12513,7 +12522,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="23" t="s">
         <v>23</v>
       </c>
@@ -12598,7 +12607,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="23" t="s">
         <v>24</v>
       </c>
@@ -12683,7 +12692,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
@@ -12768,7 +12777,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="23" t="s">
         <v>26</v>
       </c>
@@ -12853,7 +12862,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="23" t="s">
         <v>27</v>
       </c>
@@ -12938,7 +12947,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="23" t="s">
         <v>28</v>
       </c>
@@ -13023,7 +13032,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="23" t="s">
         <v>29</v>
       </c>
@@ -13110,7 +13119,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="23" t="s">
         <v>30</v>
       </c>
@@ -13195,7 +13204,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="23" t="s">
         <v>31</v>
       </c>
@@ -13280,7 +13289,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="23" t="s">
         <v>32</v>
       </c>
@@ -13365,7 +13374,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
@@ -13450,7 +13459,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
@@ -13535,7 +13544,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
@@ -13620,7 +13629,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="23" t="s">
         <v>43</v>
       </c>
@@ -13705,7 +13714,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="23" t="s">
         <v>44</v>
       </c>
@@ -13794,7 +13803,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="23" t="s">
         <v>45</v>
       </c>
@@ -13881,7 +13890,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="23" t="s">
         <v>46</v>
       </c>
@@ -13968,7 +13977,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="23" t="s">
         <v>62</v>
       </c>
@@ -14055,7 +14064,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
         <v>71</v>
       </c>
@@ -14142,7 +14151,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
         <v>72</v>
       </c>
@@ -14229,7 +14238,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
         <v>73</v>
       </c>
@@ -14319,6 +14328,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14334,24 +14344,24 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.8984375" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.09765625" customWidth="1"/>
-    <col min="20" max="24" width="9.8984375" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="3" max="3" width="15.4140625" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" customWidth="1"/>
+    <col min="5" max="5" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.08203125" customWidth="1"/>
+    <col min="20" max="24" width="9.9140625" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
     <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.8984375" customWidth="1"/>
-    <col min="29" max="30" width="11.69921875" customWidth="1"/>
+    <col min="28" max="28" width="9.9140625" customWidth="1"/>
+    <col min="29" max="30" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:30" ht="90" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:30" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="T4" s="3" t="s">
         <v>119</v>
       </c>
@@ -14374,7 +14384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="18" t="s">
         <v>51</v>
       </c>
@@ -14411,7 +14421,7 @@
       <c r="AC5" s="9"/>
       <c r="AD5" s="19"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="61" t="s">
         <v>50</v>
       </c>
@@ -14500,7 +14510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="58" t="s">
         <v>10</v>
       </c>
@@ -14581,7 +14591,7 @@
       <c r="AC7" s="27"/>
       <c r="AD7" s="60"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="58" t="s">
         <v>12</v>
       </c>
@@ -14662,7 +14672,7 @@
       <c r="AC8" s="27"/>
       <c r="AD8" s="60"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="58" t="s">
         <v>13</v>
       </c>
@@ -14743,7 +14753,7 @@
       <c r="AC9" s="27"/>
       <c r="AD9" s="60"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="58" t="s">
         <v>14</v>
       </c>
@@ -14824,7 +14834,7 @@
       <c r="AC10" s="27"/>
       <c r="AD10" s="60"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="58" t="s">
         <v>15</v>
       </c>
@@ -14905,7 +14915,7 @@
       <c r="AC11" s="27"/>
       <c r="AD11" s="60"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="58" t="s">
         <v>16</v>
       </c>
@@ -14988,7 +14998,7 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="60"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="58" t="s">
         <v>17</v>
       </c>
@@ -15069,7 +15079,7 @@
       <c r="AC13" s="27"/>
       <c r="AD13" s="60"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="58" t="s">
         <v>18</v>
       </c>
@@ -15150,7 +15160,7 @@
       <c r="AC14" s="27"/>
       <c r="AD14" s="60"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="58" t="s">
         <v>19</v>
       </c>
@@ -15231,7 +15241,7 @@
       <c r="AC15" s="27"/>
       <c r="AD15" s="60"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="58" t="s">
         <v>20</v>
       </c>
@@ -15312,7 +15322,7 @@
       <c r="AC16" s="27"/>
       <c r="AD16" s="60"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="58" t="s">
         <v>21</v>
       </c>
@@ -15393,7 +15403,7 @@
       <c r="AC17" s="27"/>
       <c r="AD17" s="60"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="58" t="s">
         <v>22</v>
       </c>
@@ -15474,7 +15484,7 @@
       <c r="AC18" s="27"/>
       <c r="AD18" s="60"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="58" t="s">
         <v>23</v>
       </c>
@@ -15555,7 +15565,7 @@
       <c r="AC19" s="27"/>
       <c r="AD19" s="60"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="58" t="s">
         <v>24</v>
       </c>
@@ -15636,7 +15646,7 @@
       <c r="AC20" s="27"/>
       <c r="AD20" s="60"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="58" t="s">
         <v>25</v>
       </c>
@@ -15719,7 +15729,7 @@
       <c r="AC21" s="27"/>
       <c r="AD21" s="60"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="58" t="s">
         <v>26</v>
       </c>
@@ -15802,7 +15812,7 @@
       <c r="AC22" s="27"/>
       <c r="AD22" s="60"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="58" t="s">
         <v>27</v>
       </c>
@@ -15885,7 +15895,7 @@
       <c r="AC23" s="27"/>
       <c r="AD23" s="60"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="58" t="s">
         <v>28</v>
       </c>
@@ -15968,7 +15978,7 @@
       <c r="AC24" s="27"/>
       <c r="AD24" s="60"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="58" t="s">
         <v>29</v>
       </c>
@@ -16053,7 +16063,7 @@
       <c r="AC25" s="27"/>
       <c r="AD25" s="60"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="58" t="s">
         <v>30</v>
       </c>
@@ -16136,7 +16146,7 @@
       <c r="AC26" s="27"/>
       <c r="AD26" s="60"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="58" t="s">
         <v>31</v>
       </c>
@@ -16219,7 +16229,7 @@
       <c r="AC27" s="27"/>
       <c r="AD27" s="60"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="58" t="s">
         <v>32</v>
       </c>
@@ -16302,7 +16312,7 @@
       <c r="AC28" s="27"/>
       <c r="AD28" s="60"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="58" t="s">
         <v>33</v>
       </c>
@@ -16385,7 +16395,7 @@
       <c r="AC29" s="27"/>
       <c r="AD29" s="60"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="58" t="s">
         <v>34</v>
       </c>
@@ -16468,7 +16478,7 @@
       <c r="AC30" s="27"/>
       <c r="AD30" s="60"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="58" t="s">
         <v>35</v>
       </c>
@@ -16551,7 +16561,7 @@
       <c r="AC31" s="27"/>
       <c r="AD31" s="60"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="58" t="s">
         <v>43</v>
       </c>
@@ -16634,7 +16644,7 @@
       <c r="AC32" s="27"/>
       <c r="AD32" s="60"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="58" t="s">
         <v>44</v>
       </c>
@@ -16723,7 +16733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="58" t="s">
         <v>45</v>
       </c>
@@ -16810,7 +16820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="58" t="s">
         <v>46</v>
       </c>
@@ -16897,7 +16907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="58" t="s">
         <v>62</v>
       </c>
@@ -16984,7 +16994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="59" t="s">
         <v>71</v>
       </c>
@@ -17071,7 +17081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="59" t="s">
         <v>72</v>
       </c>
@@ -17158,7 +17168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="64" t="s">
         <v>73</v>
       </c>
@@ -17248,8 +17258,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17260,9 +17271,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="74"/>
       <c r="B1" s="74" t="s">
         <v>121</v>
@@ -17337,7 +17348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -17345,7 +17356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -17356,7 +17367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -17370,7 +17381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -17387,7 +17398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -17407,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -17430,7 +17441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -17456,7 +17467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -17485,7 +17496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -17517,7 +17528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -17552,7 +17563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -17590,7 +17601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -17631,7 +17642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -17675,7 +17686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -17722,7 +17733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -17772,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -17825,7 +17836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -17881,7 +17892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -17940,7 +17951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -18002,7 +18013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -18067,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -18135,7 +18146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -18206,7 +18217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -18280,7 +18291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="73" t="s">
         <v>94</v>
       </c>
@@ -18372,6 +18383,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18384,27 +18396,27 @@
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.09765625" customWidth="1"/>
-    <col min="25" max="25" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.296875" customWidth="1"/>
-    <col min="27" max="27" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.796875" customWidth="1"/>
-    <col min="29" max="29" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.08203125" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="54" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:32" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="V2" s="3" t="s">
         <v>49</v>
       </c>
@@ -18424,7 +18436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="F3" s="18" t="s">
         <v>51</v>
       </c>
@@ -18465,7 +18477,7 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="19"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -18560,7 +18572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="41" t="s">
         <v>11</v>
       </c>
@@ -18657,7 +18669,7 @@
       </c>
       <c r="AF5" s="41"/>
     </row>
-    <row r="6" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="41" t="s">
         <v>12</v>
       </c>
@@ -18754,7 +18766,7 @@
       </c>
       <c r="AF6" s="11"/>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="41" t="s">
         <v>13</v>
       </c>
@@ -18851,7 +18863,7 @@
       </c>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="41" t="s">
         <v>14</v>
       </c>
@@ -18948,7 +18960,7 @@
       </c>
       <c r="AF8" s="41"/>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="41" t="s">
         <v>15</v>
       </c>
@@ -19045,7 +19057,7 @@
       </c>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="41" t="s">
         <v>16</v>
       </c>
@@ -19144,7 +19156,7 @@
       </c>
       <c r="AF10" s="11"/>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="41" t="s">
         <v>17</v>
       </c>
@@ -19241,7 +19253,7 @@
       </c>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="41" t="s">
         <v>18</v>
       </c>
@@ -19338,7 +19350,7 @@
       </c>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="41" t="s">
         <v>19</v>
       </c>
@@ -19435,7 +19447,7 @@
       </c>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="41" t="s">
         <v>20</v>
       </c>
@@ -19532,7 +19544,7 @@
       </c>
       <c r="AF14" s="11"/>
     </row>
-    <row r="15" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="41" t="s">
         <v>21</v>
       </c>
@@ -19629,7 +19641,7 @@
       </c>
       <c r="AF15" s="11"/>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
@@ -19726,7 +19738,7 @@
       </c>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="41" t="s">
         <v>23</v>
       </c>
@@ -19823,7 +19835,7 @@
       </c>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="41" t="s">
         <v>24</v>
       </c>
@@ -19920,7 +19932,7 @@
       </c>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="41" t="s">
         <v>25</v>
       </c>
@@ -20017,7 +20029,7 @@
       </c>
       <c r="AF19" s="1"/>
     </row>
-    <row r="20" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="41" t="s">
         <v>26</v>
       </c>
@@ -20114,7 +20126,7 @@
       </c>
       <c r="AF20" s="11"/>
     </row>
-    <row r="21" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
@@ -20211,7 +20223,7 @@
       </c>
       <c r="AF21" s="11"/>
     </row>
-    <row r="22" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="41" t="s">
         <v>28</v>
       </c>
@@ -20308,7 +20320,7 @@
       </c>
       <c r="AF22" s="11"/>
     </row>
-    <row r="23" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="41" t="s">
         <v>29</v>
       </c>
@@ -20407,7 +20419,7 @@
       </c>
       <c r="AF23" s="11"/>
     </row>
-    <row r="24" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="41" t="s">
         <v>30</v>
       </c>
@@ -20504,7 +20516,7 @@
       </c>
       <c r="AF24" s="41"/>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="41" t="s">
         <v>31</v>
       </c>
@@ -20601,7 +20613,7 @@
       </c>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="41" t="s">
         <v>32</v>
       </c>
@@ -20698,7 +20710,7 @@
       </c>
       <c r="AF26" s="11"/>
     </row>
-    <row r="27" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="41" t="s">
         <v>33</v>
       </c>
@@ -20795,7 +20807,7 @@
       </c>
       <c r="AF27" s="11"/>
     </row>
-    <row r="28" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="41" t="s">
         <v>34</v>
       </c>
@@ -20892,7 +20904,7 @@
       </c>
       <c r="AF28" s="41"/>
     </row>
-    <row r="29" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="41" t="s">
         <v>35</v>
       </c>
@@ -20989,7 +21001,7 @@
       </c>
       <c r="AF29" s="41"/>
     </row>
-    <row r="30" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="41" t="s">
         <v>43</v>
       </c>
@@ -21086,7 +21098,7 @@
       </c>
       <c r="AF30" s="41"/>
     </row>
-    <row r="31" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="41" t="s">
         <v>44</v>
       </c>
@@ -21187,7 +21199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="41" t="s">
         <v>45</v>
       </c>
@@ -21286,7 +21298,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="41" t="s">
         <v>46</v>
       </c>
@@ -21385,7 +21397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="41" t="s">
         <v>62</v>
       </c>
@@ -21484,7 +21496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="41" t="s">
         <v>71</v>
       </c>
@@ -21583,7 +21595,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="41" t="s">
         <v>72</v>
       </c>
@@ -21682,7 +21694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="41" t="s">
         <v>74</v>
       </c>
@@ -21781,7 +21793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="41" t="s">
         <v>108</v>
       </c>
@@ -21874,7 +21886,7 @@
       </c>
       <c r="AF39" s="41"/>
     </row>
-    <row r="40" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="41" t="s">
         <v>109</v>
       </c>
@@ -21967,7 +21979,7 @@
       </c>
       <c r="AF40" s="41"/>
     </row>
-    <row r="41" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="41" t="s">
         <v>110</v>
       </c>
@@ -22060,7 +22072,7 @@
       </c>
       <c r="AF41" s="41"/>
     </row>
-    <row r="42" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11" t="s">
         <v>111</v>
       </c>
@@ -22153,7 +22165,7 @@
       </c>
       <c r="AF42" s="11"/>
     </row>
-    <row r="43" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11" t="s">
         <v>112</v>
       </c>
@@ -22246,7 +22258,7 @@
       </c>
       <c r="AF43" s="11"/>
     </row>
-    <row r="44" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11" t="s">
         <v>113</v>
       </c>
@@ -22339,7 +22351,7 @@
       </c>
       <c r="AF44" s="11"/>
     </row>
-    <row r="45" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="41" t="s">
         <v>115</v>
       </c>
@@ -22432,7 +22444,7 @@
       </c>
       <c r="AF45" s="41"/>
     </row>
-    <row r="46" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="41" t="s">
         <v>116</v>
       </c>
@@ -22525,7 +22537,7 @@
       </c>
       <c r="AF46" s="41"/>
     </row>
-    <row r="47" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="41" t="s">
         <v>117</v>
       </c>
@@ -22621,5 +22633,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>